--- a/NOR.xlsx
+++ b/NOR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3902,7 +3902,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -3946,14 +3946,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4001,106 +4001,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5845,10 +5745,10 @@
   <dimension ref="A1:CK241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BD110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="BF221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A125" activeCellId="1" sqref="CB1:CB1048576 A125:XFD125"/>
+      <selection pane="bottomRight" activeCell="A239" sqref="A239:XFD239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44861,272 +44761,272 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="146" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="146" spans="1:89" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="4">
         <v>1.7273000000000001</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="4">
         <v>0.69469999999999998</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="4">
         <v>1.0421</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="4">
         <v>1.1429</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="4">
         <v>1.05</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="4">
         <v>1.3998999999999999</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="4">
         <v>1.250473428551</v>
       </c>
-      <c r="L146">
+      <c r="L146" s="4">
         <v>1.6799429955</v>
       </c>
-      <c r="M146">
+      <c r="M146" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="N146">
+      <c r="N146" s="4">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="O146">
+      <c r="O146" s="4">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="P146">
+      <c r="P146" s="4">
         <v>0.11210000000000001</v>
       </c>
-      <c r="Q146">
+      <c r="Q146" s="4">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="R146">
+      <c r="R146" s="4">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="S146">
+      <c r="S146" s="4">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="T146">
+      <c r="T146" s="4">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="U146">
+      <c r="U146" s="4">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="V146">
+      <c r="V146" s="4">
         <v>1.37E-2</v>
       </c>
-      <c r="W146">
+      <c r="W146" s="4">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="X146">
+      <c r="X146" s="4">
         <v>2.92E-2</v>
       </c>
-      <c r="Y146">
+      <c r="Y146" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="Z146">
+      <c r="Z146" s="4">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="AA146">
+      <c r="AA146" s="4">
         <v>5.2699999999999997E-2</v>
       </c>
-      <c r="AB146">
+      <c r="AB146" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AC146">
+      <c r="AC146" s="4">
         <v>1.8E-3</v>
       </c>
-      <c r="AD146">
+      <c r="AD146" s="4">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="AE146">
+      <c r="AE146" s="4">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="AF146">
+      <c r="AF146" s="4">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="AG146">
+      <c r="AG146" s="4">
         <v>4.3E-3</v>
       </c>
-      <c r="AH146">
+      <c r="AH146" s="4">
         <v>1.77E-2</v>
       </c>
-      <c r="AI146">
+      <c r="AI146" s="4">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="AJ146">
+      <c r="AJ146" s="4">
         <v>1.38E-2</v>
       </c>
-      <c r="AK146">
+      <c r="AK146" s="4">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="AL146">
+      <c r="AL146" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AM146">
+      <c r="AM146" s="4">
         <v>1.4E-3</v>
       </c>
-      <c r="AN146">
+      <c r="AN146" s="4">
         <v>2.3E-3</v>
       </c>
-      <c r="AO146">
+      <c r="AO146" s="4">
         <v>1.9E-3</v>
       </c>
-      <c r="AP146">
+      <c r="AP146" s="4">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="AQ146">
+      <c r="AQ146" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AR146">
+      <c r="AR146" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AS146">
+      <c r="AS146" s="4">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="AT146">
+      <c r="AT146" s="4">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="AU146">
+      <c r="AU146" s="4">
         <v>1.9E-3</v>
       </c>
-      <c r="AV146">
+      <c r="AV146" s="4">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="AW146">
-        <v>0</v>
-      </c>
-      <c r="AX146">
+      <c r="AW146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX146" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AY146">
+      <c r="AY146" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AZ146">
+      <c r="AZ146" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="BA146">
+      <c r="BA146" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="BB146">
-        <v>1E-4</v>
-      </c>
-      <c r="BC146">
-        <v>0</v>
-      </c>
-      <c r="BD146">
+      <c r="BB146" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="BC146" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD146" s="4">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="BE146">
+      <c r="BE146" s="4">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="BF146">
+      <c r="BF146" s="4">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="BG146">
+      <c r="BG146" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="BH146">
+      <c r="BH146" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="BI146">
-        <v>0</v>
-      </c>
-      <c r="BJ146" s="3">
+      <c r="BI146" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ146" s="5">
         <v>0.28499999999999998</v>
       </c>
-      <c r="BK146" s="3">
+      <c r="BK146" s="5">
         <v>0.24</v>
       </c>
-      <c r="BL146" s="3">
+      <c r="BL146" s="5">
         <v>0.47299999999999998</v>
       </c>
-      <c r="BM146" s="3">
+      <c r="BM146" s="5">
         <v>0.55900000000000005</v>
       </c>
-      <c r="BN146" s="3">
+      <c r="BN146" s="5">
         <v>0.439</v>
       </c>
-      <c r="BO146">
+      <c r="BO146" s="4">
         <v>1.79</v>
       </c>
-      <c r="BP146">
+      <c r="BP146" s="4">
         <v>2.2799999999999998</v>
       </c>
-      <c r="BQ146" t="s">
+      <c r="BQ146" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="BR146" t="s">
+      <c r="BR146" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="BS146">
+      <c r="BS146" s="4">
         <v>1.91</v>
       </c>
-      <c r="BT146">
+      <c r="BT146" s="4">
         <v>1.4</v>
       </c>
-      <c r="BU146" t="s">
+      <c r="BU146" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="BV146" t="s">
+      <c r="BV146" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="BW146">
+      <c r="BW146" s="4">
         <v>3.51</v>
       </c>
-      <c r="BX146">
+      <c r="BX146" s="4">
         <v>2.11</v>
       </c>
-      <c r="BY146" t="s">
+      <c r="BY146" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="BZ146" t="s">
+      <c r="BZ146" s="4" t="s">
         <v>1246</v>
       </c>
-      <c r="CA146">
+      <c r="CA146" s="4">
         <v>1.34</v>
       </c>
-      <c r="CB146">
+      <c r="CB146" s="4">
         <v>1.1399999999999999</v>
       </c>
-      <c r="CC146" t="s">
+      <c r="CC146" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="CD146" t="s">
+      <c r="CD146" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="CE146">
+      <c r="CE146" s="4">
         <v>3.51</v>
       </c>
-      <c r="CF146">
+      <c r="CF146" s="4">
         <v>2.11</v>
       </c>
-      <c r="CG146" t="s">
+      <c r="CG146" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="CH146" t="s">
+      <c r="CH146" s="4" t="s">
         <v>1246</v>
       </c>
-      <c r="CI146">
+      <c r="CI146" s="4">
         <v>1.34</v>
       </c>
-      <c r="CJ146">
+      <c r="CJ146" s="4">
         <v>1.1399999999999999</v>
       </c>
-      <c r="CK146" t="s">
+      <c r="CK146" s="4" t="s">
         <v>1268</v>
       </c>
     </row>
@@ -69878,272 +69778,272 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="239" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="239" spans="1:89" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="4">
         <v>1.7273000000000001</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="4">
         <v>1.3895</v>
       </c>
-      <c r="G239">
+      <c r="G239" s="4">
         <v>1.7367999999999999</v>
       </c>
-      <c r="H239">
+      <c r="H239" s="4">
         <v>1.1429</v>
       </c>
-      <c r="I239">
+      <c r="I239" s="4">
         <v>0.52500000000000002</v>
       </c>
-      <c r="J239">
+      <c r="J239" s="4">
         <v>1.2250000000000001</v>
       </c>
-      <c r="K239">
+      <c r="K239" s="4">
         <v>4.1684647622800002</v>
       </c>
-      <c r="L239">
+      <c r="L239" s="4">
         <v>0.73502756250000012</v>
       </c>
-      <c r="M239">
+      <c r="M239" s="4">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="N239">
+      <c r="N239" s="4">
         <v>3.09E-2</v>
       </c>
-      <c r="O239">
+      <c r="O239" s="4">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="P239">
+      <c r="P239" s="4">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="Q239">
+      <c r="Q239" s="4">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="R239">
+      <c r="R239" s="4">
         <v>2E-3</v>
       </c>
-      <c r="S239">
+      <c r="S239" s="4">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="T239">
+      <c r="T239" s="4">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="U239">
+      <c r="U239" s="4">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="V239">
+      <c r="V239" s="4">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="W239">
+      <c r="W239" s="4">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="X239">
+      <c r="X239" s="4">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="Y239">
+      <c r="Y239" s="4">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="Z239">
+      <c r="Z239" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AA239">
+      <c r="AA239" s="4">
         <v>2E-3</v>
       </c>
-      <c r="AB239">
+      <c r="AB239" s="4">
         <v>4.3E-3</v>
       </c>
-      <c r="AC239">
+      <c r="AC239" s="4">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="AD239">
+      <c r="AD239" s="4">
         <v>9.3399999999999997E-2</v>
       </c>
-      <c r="AE239">
+      <c r="AE239" s="4">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="AF239">
+      <c r="AF239" s="4">
         <v>2.52E-2</v>
       </c>
-      <c r="AG239">
+      <c r="AG239" s="4">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="AH239">
-        <v>1E-4</v>
-      </c>
-      <c r="AI239">
+      <c r="AH239" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="AI239" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="AJ239">
+      <c r="AJ239" s="4">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="AK239">
+      <c r="AK239" s="4">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="AL239">
-        <v>1E-4</v>
-      </c>
-      <c r="AM239">
+      <c r="AL239" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="AM239" s="4">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="AN239">
+      <c r="AN239" s="4">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="AO239">
+      <c r="AO239" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AP239">
+      <c r="AP239" s="4">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="AQ239">
+      <c r="AQ239" s="4">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="AR239">
-        <v>0</v>
-      </c>
-      <c r="AS239">
-        <v>1E-4</v>
-      </c>
-      <c r="AT239">
-        <v>1E-4</v>
-      </c>
-      <c r="AU239">
+      <c r="AR239" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS239" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="AT239" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="AU239" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AV239">
+      <c r="AV239" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AW239">
-        <v>0</v>
-      </c>
-      <c r="AX239">
+      <c r="AW239" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX239" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="AY239">
+      <c r="AY239" s="4">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="AZ239">
+      <c r="AZ239" s="4">
         <v>1.46E-2</v>
       </c>
-      <c r="BA239">
+      <c r="BA239" s="4">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="BB239">
+      <c r="BB239" s="4">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="BC239">
-        <v>1E-4</v>
-      </c>
-      <c r="BD239">
-        <v>0</v>
-      </c>
-      <c r="BE239">
-        <v>0</v>
-      </c>
-      <c r="BF239">
-        <v>0</v>
-      </c>
-      <c r="BG239">
-        <v>0</v>
-      </c>
-      <c r="BH239">
-        <v>0</v>
-      </c>
-      <c r="BI239">
-        <v>0</v>
-      </c>
-      <c r="BJ239" s="3">
+      <c r="BC239" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="BD239" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE239" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF239" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG239" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH239" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI239" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ239" s="5">
         <v>0.79100000000000004</v>
       </c>
-      <c r="BK239" s="3">
+      <c r="BK239" s="5">
         <v>5.5E-2</v>
       </c>
-      <c r="BL239" s="3">
+      <c r="BL239" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="BM239" s="3">
+      <c r="BM239" s="5">
         <v>0.73799999999999999</v>
       </c>
-      <c r="BN239" s="3">
+      <c r="BN239" s="5">
         <v>0.13300000000000001</v>
       </c>
-      <c r="BO239">
+      <c r="BO239" s="4">
         <v>1.36</v>
       </c>
-      <c r="BP239">
+      <c r="BP239" s="4">
         <v>7.52</v>
       </c>
-      <c r="BQ239" t="s">
+      <c r="BQ239" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="BR239" t="s">
+      <c r="BR239" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="BS239">
+      <c r="BS239" s="4">
         <v>1.18</v>
       </c>
-      <c r="BT239">
+      <c r="BT239" s="4">
         <v>12.45</v>
       </c>
-      <c r="BU239" t="s">
+      <c r="BU239" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="BV239" t="s">
+      <c r="BV239" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="BW239">
+      <c r="BW239" s="4">
         <v>1.26</v>
       </c>
-      <c r="BX239">
+      <c r="BX239" s="4">
         <v>38.909999999999997</v>
       </c>
-      <c r="BY239" t="s">
+      <c r="BY239" s="4" t="s">
         <v>1227</v>
       </c>
-      <c r="BZ239" t="s">
+      <c r="BZ239" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="CA239">
+      <c r="CA239" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="CB239">
+      <c r="CB239" s="4">
         <v>5.26</v>
       </c>
-      <c r="CC239" t="s">
+      <c r="CC239" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="CD239" t="s">
+      <c r="CD239" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="CE239">
+      <c r="CE239" s="4">
         <v>1.26</v>
       </c>
-      <c r="CF239">
+      <c r="CF239" s="4">
         <v>38.909999999999997</v>
       </c>
-      <c r="CG239" t="s">
+      <c r="CG239" s="4" t="s">
         <v>1227</v>
       </c>
-      <c r="CH239" t="s">
+      <c r="CH239" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="CI239">
+      <c r="CI239" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="CJ239">
+      <c r="CJ239" s="4">
         <v>5.26</v>
       </c>
-      <c r="CK239" t="s">
+      <c r="CK239" s="4" t="s">
         <v>1266</v>
       </c>
     </row>
@@ -77144,7 +77044,10 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="A10:XFD10 A5:XFD5"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77246,26 +77149,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>167</v>
       </c>
     </row>
@@ -77361,72 +77264,72 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>174</v>
       </c>
     </row>

--- a/NOR.xlsx
+++ b/NOR.xlsx
@@ -560,340 +560,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Bodo/Glimt,W D W W L W W D L W L D D W W W D W W W W</t>
-  </si>
-  <si>
-    <t>Brann,L L L L L W D L L D L D D W L L W D W D D</t>
-  </si>
-  <si>
-    <t>Haugesund,D L W L W W D W L W D W L L L W W L L L W</t>
-  </si>
-  <si>
-    <t>Kristiansund,L W W W W W L D D W L W L W L W W W L W D</t>
-  </si>
-  <si>
-    <t>Lillestrom,L W L W W W D W D D W W D L W W L W L L D</t>
-  </si>
-  <si>
-    <t>Mjondalen,D L D L D D L L W D D L L L D L L D L D L</t>
-  </si>
-  <si>
-    <t>Molde,D W W L D W W W W W L W D W L L W D D W W</t>
-  </si>
-  <si>
-    <t>Odd,D L W L D W W W D L W L L W L L D L W L D</t>
-  </si>
-  <si>
-    <t>Rosenborg,W D W L W W L L L D D W W W W L W W W L D</t>
-  </si>
-  <si>
-    <t>Sandefjord,W L L L W L W W W L D W D L D L W D L L D</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,D L W D L W L L W L D D L L W W L L L W L</t>
-  </si>
-  <si>
-    <t>Stabaek,D W L L L L L D L L L W W L D L L W D L D</t>
-  </si>
-  <si>
-    <t>Stromsgodset,L D L W L D W L D D W W L L W W L W D L L</t>
-  </si>
-  <si>
-    <t>Tromso,D W L D L W L L D L D L W D D L L D W W L</t>
-  </si>
-  <si>
-    <t>Valerenga,W L D W W L D D W W D D L D D W L D L W D</t>
-  </si>
-  <si>
-    <t>Viking,L L W W L W L W D D D L W W D W W L D W W</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,2 2 2 2 0 2 7 1 0 4 0 2 2 1 3 3 1 3 1 3 2,(43)</t>
-  </si>
-  <si>
-    <t>Brann,0 0 2 1 0 3 0 1 0 1 2 1 1 3 1 1 3 1 3 1 1,(26)</t>
-  </si>
-  <si>
-    <t>Haugesund,0 0 4 1 3 1 0 3 0 3 1 2 4 2 0 3 2 2 1 0 7,(39)</t>
-  </si>
-  <si>
-    <t>Kristiansund,0 2 1 1 1 2 0 1 0 3 0 2 2 5 0 2 2 3 1 1 0,(29)</t>
-  </si>
-  <si>
-    <t>Lillestrom,1 1 0 2 2 2 1 2 2 1 3 2 1 0 3 2 2 3 1 1 0,(32)</t>
-  </si>
-  <si>
-    <t>Mjondalen,1 1 0 0 1 1 1 1 3 1 1 1 2 1 1 1 0 1 1 1 0,(20)</t>
-  </si>
-  <si>
-    <t>Molde,3 4 3 2 0 3 4 2 2 3 0 5 1 5 2 0 4 1 2 3 3,(52)</t>
-  </si>
-  <si>
-    <t>Odd,1 0 1 0 1 3 3 2 2 0 3 0 2 4 0 0 1 2 3 1 0,(29)</t>
-  </si>
-  <si>
-    <t>Rosenborg,5 2 3 2 2 4 1 0 0 0 2 1 3 2 5 1 3 3 3 0 2,(44)</t>
-  </si>
-  <si>
-    <t>Sandefjord,3 1 1 1 3 0 1 2 2 0 1 3 1 2 1 0 3 1 0 1 0,(27)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,1 0 2 0 1 1 1 1 1 0 2 1 0 1 1 5 1 1 0 2 1,(23)</t>
-  </si>
-  <si>
-    <t>Stabaek,0 2 2 0 1 0 1 3 0 1 2 2 3 1 1 1 1 3 0 0 1,(25)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,0 1 0 2 2 1 4 0 1 1 2 3 1 0 3 1 1 5 0 0 0,(28)</t>
-  </si>
-  <si>
-    <t>Tromso,3 1 1 1 0 3 1 0 0 0 1 1 3 1 1 2 2 1 2 2 0,(26)</t>
-  </si>
-  <si>
-    <t>Valerenga,3 1 1 3 3 1 1 1 2 4 1 2 1 1 1 3 0 1 0 3 2,(35)</t>
-  </si>
-  <si>
-    <t>Viking,0 0 3 2 2 4 0 2 3 2 1 2 3 3 1 2 3 1 2 2 1,(39)</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,0 2 1 0 1 0 2 1 2 1 1 2 2 0 0 2 1 1 0 0 1,(20)</t>
-  </si>
-  <si>
-    <t>Brann,3 4 3 2 2 0 0 3 1 1 3 1 1 2 3 3 2 1 1 1 1,(38)</t>
-  </si>
-  <si>
-    <t>Haugesund,0 2 2 2 0 0 0 0 3 1 1 1 5 4 3 1 1 3 3 2 0,(34)</t>
-  </si>
-  <si>
-    <t>Kristiansund,2 1 0 0 0 0 3 1 0 2 1 0 3 1 3 0 1 2 3 0 0,(23)</t>
-  </si>
-  <si>
-    <t>Lillestrom,3 0 1 1 1 0 1 1 2 1 2 0 1 1 0 1 3 2 2 2 0,(25)</t>
-  </si>
-  <si>
-    <t>Mjondalen,1 2 0 2 1 1 2 2 0 1 1 2 3 2 1 2 4 1 3 1 7,(39)</t>
-  </si>
-  <si>
-    <t>Molde,3 0 2 3 0 1 1 1 0 0 1 0 1 4 3 2 0 1 2 1 0,(26)</t>
-  </si>
-  <si>
-    <t>Odd,1 1 0 2 1 1 0 1 2 5 2 3 3 2 5 1 1 3 1 3 0,(38)</t>
-  </si>
-  <si>
-    <t>Rosenborg,0 2 2 3 1 2 2 1 2 0 2 0 1 1 0 2 2 1 1 1 2,(28)</t>
-  </si>
-  <si>
-    <t>Sandefjord,1 2 3 3 0 4 0 0 0 2 1 2 1 3 1 5 0 1 3 2 0,(34)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,1 1 0 0 4 0 2 4 0 2 2 1 2 3 0 0 2 3 5 1 2,(35)</t>
-  </si>
-  <si>
-    <t>Stabaek,0 0 4 3 2 2 4 3 2 2 3 1 1 5 1 3 3 0 0 3 1,(43)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,1 1 3 1 7 1 0 3 1 1 1 0 2 1 1 0 2 0 0 3 1,(30)</t>
-  </si>
-  <si>
-    <t>Tromso,3 0 3 1 2 0 2 3 0 3 1 3 2 1 1 3 3 1 1 0 3,(36)</t>
-  </si>
-  <si>
-    <t>Valerenga,0 2 1 2 1 4 1 1 0 1 1 2 3 1 1 1 3 1 1 0 2,(29)</t>
-  </si>
-  <si>
-    <t>Viking,5 1 1 1 4 1 3 1 3 2 1 3 2 2 1 1 1 3 2 1 0,(39)</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,2 4 3 2 1 2 9 2 2 5 1 4 4 1 3 5 2 4 1 3 3,(63)</t>
-  </si>
-  <si>
-    <t>Brann,3 4 5 3 2 3 0 4 1 2 5 2 2 5 4 4 5 2 4 2 2,(64)</t>
-  </si>
-  <si>
-    <t>Haugesund,0 2 6 3 3 1 0 3 3 4 2 3 9 6 3 4 3 5 4 2 7,(73)</t>
-  </si>
-  <si>
-    <t>Kristiansund,2 3 1 1 1 2 3 2 0 5 1 2 5 6 3 2 3 5 4 1 0,(52)</t>
-  </si>
-  <si>
-    <t>Lillestrom,4 1 1 3 3 2 2 3 4 2 5 2 2 1 3 3 5 5 3 3 0,(57)</t>
-  </si>
-  <si>
-    <t>Mjondalen,2 3 0 2 2 2 3 3 3 2 2 3 5 3 2 3 4 2 4 2 7,(59)</t>
-  </si>
-  <si>
-    <t>Molde,6 4 5 5 0 4 5 3 2 3 1 5 2 9 5 2 4 2 4 4 3,(78)</t>
-  </si>
-  <si>
-    <t>Odd,2 1 1 2 2 4 3 3 4 5 5 3 5 6 5 1 2 5 4 4 0,(67)</t>
-  </si>
-  <si>
-    <t>Rosenborg,5 4 5 5 3 6 3 1 2 0 4 1 4 3 5 3 5 4 4 1 4,(72)</t>
-  </si>
-  <si>
-    <t>Sandefjord,4 3 4 4 3 4 1 2 2 2 2 5 2 5 2 5 3 2 3 3 0,(61)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,2 1 2 0 5 1 3 5 1 2 4 2 2 4 1 5 3 4 5 3 3,(58)</t>
-  </si>
-  <si>
-    <t>Stabaek,0 2 6 3 3 2 5 6 2 3 5 3 4 6 2 4 4 3 0 3 2,(68)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,1 2 3 3 9 2 4 3 2 2 3 3 3 1 4 1 3 5 0 3 1,(58)</t>
-  </si>
-  <si>
-    <t>Tromso,6 1 4 2 2 3 3 3 0 3 2 4 5 2 2 5 5 2 3 2 3,(62)</t>
-  </si>
-  <si>
-    <t>Valerenga,3 3 2 5 4 5 2 2 2 5 2 4 4 2 2 4 3 2 1 3 4,(64)</t>
-  </si>
-  <si>
-    <t>Viking,5 1 4 3 6 5 3 3 6 4 2 5 5 5 2 3 4 4 4 3 1,(78)</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,0-2 2-2 1-2 2-0 1-0 2-0 7-2 1-1 0-2 4-1 1-0 2-2 2-2 0-1 3-0 2-3 1-1 1-3 1-0 0-3 2-1</t>
-  </si>
-  <si>
-    <t>Brann,0-3 4-0 3-2 1-2 2-0 3-0 0-0 1-3 1-0 1-1 3-2 1-1 1-1 3-2 3-1 1-3 2-3 1-1 3-1 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Haugesund,0-0 2-0 4-2 2-1 3-0 1-0 0-0 3-0 3-0 3-1 1-1 2-1 5-4 4-2 0-3 1-3 2-1 3-2 1-3 2-0 7-0</t>
-  </si>
-  <si>
-    <t>Kristiansund,0-2 1-2 1-0 0-1 1-0 2-0 3-0 1-1 0-0 3-2 1-0 2-0 3-2 5-1 3-0 2-0 1-2 3-2 3-1 1-0 0-0</t>
-  </si>
-  <si>
-    <t>Lillestrom,1-3 1-0 1-0 2-1 1-2 2-0 1-1 2-1 2-2 1-1 2-3 2-0 1-1 0-1 0-3 1-2 2-3 2-3 1-2 2-1 0-0</t>
-  </si>
-  <si>
-    <t>Mjondalen,1-1 2-1 0-0 2-0 1-1 1-1 1-2 2-1 3-0 1-1 1-1 1-2 2-3 1-2 1-1 1-2 4-0 1-1 3-1 1-1 7-0</t>
-  </si>
-  <si>
-    <t>Molde,3-3 4-0 2-3 2-3 0-0 1-3 4-1 2-1 0-2 3-0 1-0 5-0 1-1 5-4 3-2 2-0 4-0 1-1 2-2 1-3 3-0</t>
-  </si>
-  <si>
-    <t>Odd,1-1 1-0 1-0 2-0 1-1 1-3 3-0 1-2 2-2 5-0 3-2 3-0 2-3 4-2 5-0 0-1 1-1 2-3 1-3 1-3 0-0</t>
-  </si>
-  <si>
-    <t>Rosenborg,5-0 2-2 3-2 2-3 1-2 4-2 2-1 0-1 2-0 0-0 2-2 1-0 1-3 1-2 5-0 2-1 3-2 1-3 3-1 1-0 2-2</t>
-  </si>
-  <si>
-    <t>Sandefjord,1-3 1-2 3-1 1-3 3-0 4-0 1-0 0-2 2-0 2-0 1-1 2-3 1-1 3-2 1-1 5-0 3-0 1-1 0-3 2-1 0-0</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,1-1 0-1 0-2 0-0 4-1 0-1 1-2 4-1 1-0 2-0 2-2 1-1 2-0 3-1 1-0 5-0 2-1 1-3 5-0 2-1 2-1</t>
-  </si>
-  <si>
-    <t>Stabaek,0-0 2-0 4-2 0-3 2-1 0-2 4-1 3-3 0-2 2-1 2-3 1-2 3-1 5-1 1-1 3-1 1-3 0-3 0-0 0-3 1-1</t>
-  </si>
-  <si>
-    <t>Stromsgodset,1-0 1-1 3-0 2-1 7-2 1-1 4-0 3-0 1-1 1-1 2-1 3-0 2-1 1-0 3-1 0-1 1-2 5-0 0-0 3-0 0-1</t>
-  </si>
-  <si>
-    <t>Tromso,3-3 0-1 1-3 1-1 0-2 0-3 1-2 3-0 0-0 3-0 1-1 1-3 2-3 1-1 1-1 2-3 3-2 1-1 1-2 2-0 3-0</t>
-  </si>
-  <si>
-    <t>Valerenga,0-3 1-2 1-1 2-3 3-1 4-1 1-1 1-1 0-2 4-1 1-1 2-2 3-1 1-1 1-1 3-1 3-0 1-1 1-0 3-0 2-2</t>
-  </si>
-  <si>
-    <t>Viking,5-0 0-1 1-3 2-1 4-2 4-1 3-0 1-2 3-3 2-2 1-1 3-2 3-2 3-2 1-1 2-1 1-3 1-3 2-2 2-1 0-1</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,2 0 1 2 -1 2 5 0 -2 3 -1 0 0 1 3 1 0 2 1 3 1,(23)</t>
-  </si>
-  <si>
-    <t>Brann,-3 -4 -1 -1 -2 3 0 -2 -1 0 -1 0 0 1 -2 -2 1 0 2 0 0,(-12)</t>
-  </si>
-  <si>
-    <t>Haugesund,0 -2 2 -1 3 1 0 3 -3 2 0 1 -1 -2 -3 2 1 -1 -2 -2 7,(5)</t>
-  </si>
-  <si>
-    <t>Kristiansund,-2 1 1 1 1 2 -3 0 0 1 -1 2 -1 4 -3 2 1 1 -2 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Lillestrom,-2 1 -1 1 1 2 0 1 0 0 1 2 0 -1 3 1 -1 1 -1 -1 0,(7)</t>
-  </si>
-  <si>
-    <t>Mjondalen,0 -1 0 -2 0 0 -1 -1 3 0 0 -1 -1 -1 0 -1 -4 0 -2 0 -7,(-19)</t>
-  </si>
-  <si>
-    <t>Molde,0 4 1 -1 0 2 3 1 2 3 -1 5 0 1 -1 -2 4 0 0 2 3,(26)</t>
-  </si>
-  <si>
-    <t>Odd,0 -1 1 -2 0 2 3 1 0 -5 1 -3 -1 2 -5 -1 0 -1 2 -2 0,(-9)</t>
-  </si>
-  <si>
-    <t>Rosenborg,5 0 1 -1 1 2 -1 -1 -2 0 0 1 2 1 5 -1 1 2 2 -1 0,(16)</t>
-  </si>
-  <si>
-    <t>Sandefjord,2 -1 -2 -2 3 -4 1 2 2 -2 0 1 0 -1 0 -5 3 0 -3 -1 0,(-7)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,0 -1 2 0 -3 1 -1 -3 1 -2 0 0 -2 -2 1 5 -1 -2 -5 1 -1,(-12)</t>
-  </si>
-  <si>
-    <t>Stabaek,0 2 -2 -3 -1 -2 -3 0 -2 -1 -1 1 2 -4 0 -2 -2 3 0 -3 0,(-18)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,-1 0 -3 1 -5 0 4 -3 0 0 1 3 -1 -1 2 1 -1 5 0 -3 -1,(-2)</t>
-  </si>
-  <si>
-    <t>Tromso,0 1 -2 0 -2 3 -1 -3 0 -3 0 -2 1 0 0 -1 -1 0 1 2 -3,(-10)</t>
-  </si>
-  <si>
-    <t>Valerenga,3 -1 0 1 2 -3 0 0 2 3 0 0 -2 0 0 2 -3 0 -1 3 0,(6)</t>
-  </si>
-  <si>
-    <t>Viking,-5 -1 2 1 -2 3 -3 1 0 0 0 -1 1 1 0 1 2 -2 0 1 1,(0)</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,Kristiansund(3) Rosenborg(4) Brann(14) Haugesund(7) Odd(10) Mjondalen(16) Stromsgodset(9) Valerenga(8) Molde(2) Stabaek(15) Sandefjord(11) Viking(5) Sarpsborg 08(12) Lillestrom(6) Kristiansund(3) Tromso(13) Odd(10) Viking(5) Valerenga(8) Stabaek(15) Sarpsborg 08(12)</t>
-  </si>
-  <si>
-    <t>Brann,Valerenga(8) Molde(2) Rosenborg(4) Bodo/Glimt(1) Stabaek(15) Stromsgodset(9) Sarpsborg 08(12) Odd(10) Haugesund(7) Lillestrom(6) Kristiansund(3) Tromso(13) Mjondalen(16) Sandefjord(11) Stromsgodset(9) Haugesund(7) Lillestrom(6) Tromso(13) Kristiansund(3) Mjondalen(16) Stabaek(15)</t>
-  </si>
-  <si>
-    <t>Haugesund,Stabaek(15) Bodo/Glimt(1) Viking(5) Lillestrom(6) Kristiansund(3) Brann(14) Rosenborg(4) Tromso(13) Mjondalen(16) Valerenga(8) Sandefjord(11) Stromsgodset(9) Molde(2) Odd(10) Lillestrom(6) Brann(14) Sarpsborg 08(12) Kristiansund(3) Odd(10) Tromso(13) Mjondalen(16)</t>
-  </si>
-  <si>
-    <t>Kristiansund,Bodo/Glimt(1) Valerenga(8) Stromsgodset(9) Sarpsborg 08(12) Lillestrom(6) Odd(10) Haugesund(7) Mjondalen(16) Tromso(13) Brann(14) Rosenborg(4) Sandefjord(11) Viking(5) Stabaek(15) Bodo/Glimt(1) Molde(2) Stromsgodset(9) Haugesund(7) Brann(14) Rosenborg(4) Lillestrom(6)</t>
-  </si>
-  <si>
-    <t>Lillestrom,Viking(5) Odd(10) Kristiansund(3) Haugesund(7) Tromso(13) Rosenborg(4) Brann(14) Mjondalen(16) Valerenga(8) Molde(2) Stabaek(15) Sarpsborg 08(12) Sandefjord(11) Bodo/Glimt(1) Haugesund(7) Mjondalen(16) Brann(14) Odd(10) Tromso(13) Sarpsborg 08(12) Kristiansund(3)</t>
-  </si>
-  <si>
-    <t>Mjondalen,Valerenga(8) Viking(5) Molde(2) Bodo/Glimt(1) Stromsgodset(9) Kristiansund(3) Odd(10) Lillestrom(6) Haugesund(7) Brann(14) Sarpsborg 08(12) Stabaek(15) Tromso(13) Rosenborg(4) Stabaek(15) Lillestrom(6) Molde(2) Sandefjord(11) Rosenborg(4) Brann(14) Haugesund(7)</t>
-  </si>
-  <si>
-    <t>Molde,Tromso(13) Brann(14) Rosenborg(4) Valerenga(8) Mjondalen(16) Sandefjord(11) Sarpsborg 08(12) Stabaek(15) Bodo/Glimt(1) Stromsgodset(9) Sarpsborg 08(12) Odd(10) Lillestrom(6) Haugesund(7) Viking(5) Kristiansund(3) Mjondalen(16) Valerenga(8) Viking(5) Odd(10) Tromso(13)</t>
-  </si>
-  <si>
-    <t>Odd,Sarpsborg 08(12) Lillestrom(6) Bodo/Glimt(1) Kristiansund(3) Valerenga(8) Brann(14) Tromso(13) Mjondalen(16) Rosenborg(4) Molde(2) Viking(5) Stromsgodset(9) Sandefjord(11) Haugesund(7) Rosenborg(4) Stromsgodset(9) Bodo/Glimt(1) Lillestrom(6) Haugesund(7) Molde(2) Sandefjord(11)</t>
-  </si>
-  <si>
-    <t>Rosenborg,Viking(5) Bodo/Glimt(1) Brann(14) Molde(2) Sandefjord(11) Stabaek(15) Stromsgodset(9) Sarpsborg 08(12) Lillestrom(6) Haugesund(7) Odd(10) Kristiansund(3) Tromso(13) Mjondalen(16) Odd(10) Viking(5) Tromso(13) Sarpsborg 08(12) Mjondalen(16) Kristiansund(3) Valerenga(8)</t>
-  </si>
-  <si>
-    <t>Sandefjord,Tromso(13) Rosenborg(4) Valerenga(8) Molde(2) Viking(5) Stromsgodset(9) Bodo/Glimt(1) Stabaek(15) Sarpsborg 08(12) Kristiansund(3) Haugesund(7) Odd(10) Lillestrom(6) Brann(14) Tromso(13) Sarpsborg 08(12) Valerenga(8) Mjondalen(16) Stabaek(15) Viking(5) Odd(10)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,Odd(10) Kristiansund(3) Tromso(13) Brann(14) Molde(2) Rosenborg(4) Viking(5) Valerenga(8) Molde(2) Sandefjord(11) Bodo/Glimt(1) Mjondalen(16) Lillestrom(6) Stabaek(15) Stromsgodset(9) Sandefjord(11) Haugesund(7) Rosenborg(4) Stromsgodset(9) Lillestrom(6) Bodo/Glimt(1)</t>
-  </si>
-  <si>
-    <t>Stabaek,Haugesund(7) Brann(14) Rosenborg(4) Tromso(13) Molde(2) Valerenga(8) Bodo/Glimt(1) Viking(5) Sandefjord(11) Stromsgodset(9) Lillestrom(6) Mjondalen(16) Sarpsborg 08(12) Kristiansund(3) Mjondalen(16) Valerenga(8) Viking(5) Sandefjord(11) Stromsgodset(9) Bodo/Glimt(1) Brann(14)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,Kristiansund(3) Tromso(13) Brann(14) Rosenborg(4) Bodo/Glimt(1) Mjondalen(16) Sandefjord(11) Molde(2) Valerenga(8) Viking(5) Stabaek(15) Odd(10) Haugesund(7) Sarpsborg 08(12) Brann(14) Odd(10) Kristiansund(3) Sarpsborg 08(12) Stabaek(15) Valerenga(8) Viking(5)</t>
-  </si>
-  <si>
-    <t>Tromso,Molde(2) Viking(5) Sandefjord(11) Stromsgodset(9) Sarpsborg 08(12) Stabaek(15) Lillestrom(6) Odd(10) Kristiansund(3) Haugesund(7) Brann(14) Rosenborg(4) Mjondalen(16) Valerenga(8) Sandefjord(11) Bodo/Glimt(1) Rosenborg(4) Brann(14) Lillestrom(6) Haugesund(7) Molde(2)</t>
-  </si>
-  <si>
-    <t>Valerenga,Brann(14) Kristiansund(3) Mjondalen(16) Molde(2) Sandefjord(11) Viking(5) Odd(10) Bodo/Glimt(1) Stabaek(15) Sarpsborg 08(12) Stromsgodset(9) Lillestrom(6) Haugesund(7) Tromso(13) Viking(5) Stabaek(15) Sandefjord(11) Molde(2) Bodo/Glimt(1) Stromsgodset(9) Rosenborg(4)</t>
-  </si>
-  <si>
-    <t>Viking,Rosenborg(4) Tromso(13) Lillestrom(6) Mjondalen(16) Haugesund(7) Valerenga(8) Sandefjord(11) Sarpsborg 08(12) Stabaek(15) Bodo/Glimt(1) Stromsgodset(9) Odd(10) Kristiansund(3) Molde(2) Valerenga(8) Rosenborg(4) Stabaek(15) Bodo/Glimt(1) Molde(2) Sandefjord(11) Stromsgodset(9)</t>
+    <t>Bodo/Glimt,W D W W W W</t>
+  </si>
+  <si>
+    <t>Brann,L W D W D D</t>
+  </si>
+  <si>
+    <t>Haugesund,W W L L L W</t>
+  </si>
+  <si>
+    <t>Kristiansund,W W W L W D</t>
+  </si>
+  <si>
+    <t>Lillestrom,W L W L L D</t>
+  </si>
+  <si>
+    <t>Mjondalen,L L D L D L</t>
+  </si>
+  <si>
+    <t>Molde,L W D D W W</t>
+  </si>
+  <si>
+    <t>Odd,L D L W L D</t>
+  </si>
+  <si>
+    <t>Rosenborg,L W W W L D</t>
+  </si>
+  <si>
+    <t>Sandefjord,L W D L L D</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,W L L L W L</t>
+  </si>
+  <si>
+    <t>Stabaek,L L W D L D</t>
+  </si>
+  <si>
+    <t>Stromsgodset,W L W D L L</t>
+  </si>
+  <si>
+    <t>Tromso,L L D W W L</t>
+  </si>
+  <si>
+    <t>Valerenga,W L D L W D</t>
+  </si>
+  <si>
+    <t>Viking,W W L D W W</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,3 1 3 1 3 2,(13)</t>
+  </si>
+  <si>
+    <t>Brann,1 3 1 3 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Haugesund,3 2 2 1 0 7,(15)</t>
+  </si>
+  <si>
+    <t>Kristiansund,2 2 3 1 1 0,(9)</t>
+  </si>
+  <si>
+    <t>Lillestrom,2 2 3 1 1 0,(9)</t>
+  </si>
+  <si>
+    <t>Mjondalen,1 0 1 1 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Molde,0 4 1 2 3 3,(13)</t>
+  </si>
+  <si>
+    <t>Odd,0 1 2 3 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Rosenborg,1 3 3 3 0 2,(12)</t>
+  </si>
+  <si>
+    <t>Sandefjord,0 3 1 0 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,5 1 1 0 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Stabaek,1 1 3 0 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,1 1 5 0 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Tromso,2 2 1 2 2 0,(9)</t>
+  </si>
+  <si>
+    <t>Valerenga,3 0 1 0 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Viking,2 3 1 2 2 1,(11)</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,2 1 1 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Brann,3 2 1 1 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Haugesund,1 1 3 3 2 0,(10)</t>
+  </si>
+  <si>
+    <t>Kristiansund,0 1 2 3 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Lillestrom,1 3 2 2 2 0,(10)</t>
+  </si>
+  <si>
+    <t>Mjondalen,2 4 1 3 1 7,(18)</t>
+  </si>
+  <si>
+    <t>Molde,2 0 1 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Odd,1 1 3 1 3 0,(9)</t>
+  </si>
+  <si>
+    <t>Rosenborg,2 2 1 1 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Sandefjord,5 0 1 3 2 0,(11)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,0 2 3 5 1 2,(13)</t>
+  </si>
+  <si>
+    <t>Stabaek,3 3 0 0 3 1,(10)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,0 2 0 0 3 1,(6)</t>
+  </si>
+  <si>
+    <t>Tromso,3 3 1 1 0 3,(11)</t>
+  </si>
+  <si>
+    <t>Valerenga,1 3 1 1 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Viking,1 1 3 2 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,5 2 4 1 3 3,(18)</t>
+  </si>
+  <si>
+    <t>Brann,4 5 2 4 2 2,(19)</t>
+  </si>
+  <si>
+    <t>Haugesund,4 3 5 4 2 7,(25)</t>
+  </si>
+  <si>
+    <t>Kristiansund,2 3 5 4 1 0,(15)</t>
+  </si>
+  <si>
+    <t>Lillestrom,3 5 5 3 3 0,(19)</t>
+  </si>
+  <si>
+    <t>Mjondalen,3 4 2 4 2 7,(22)</t>
+  </si>
+  <si>
+    <t>Molde,2 4 2 4 4 3,(19)</t>
+  </si>
+  <si>
+    <t>Odd,1 2 5 4 4 0,(16)</t>
+  </si>
+  <si>
+    <t>Rosenborg,3 5 4 4 1 4,(21)</t>
+  </si>
+  <si>
+    <t>Sandefjord,5 3 2 3 3 0,(16)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,5 3 4 5 3 3,(23)</t>
+  </si>
+  <si>
+    <t>Stabaek,4 4 3 0 3 2,(16)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,1 3 5 0 3 1,(13)</t>
+  </si>
+  <si>
+    <t>Tromso,5 5 2 3 2 3,(20)</t>
+  </si>
+  <si>
+    <t>Valerenga,4 3 2 1 3 4,(17)</t>
+  </si>
+  <si>
+    <t>Viking,3 4 4 4 3 1,(19)</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,2-3 1-1 1-3 1-0 0-3 2-1</t>
+  </si>
+  <si>
+    <t>Brann,1-3 2-3 1-1 3-1 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Haugesund,1-3 2-1 3-2 1-3 2-0 7-0</t>
+  </si>
+  <si>
+    <t>Kristiansund,2-0 1-2 3-2 3-1 1-0 0-0</t>
+  </si>
+  <si>
+    <t>Lillestrom,1-2 2-3 2-3 1-2 2-1 0-0</t>
+  </si>
+  <si>
+    <t>Mjondalen,1-2 4-0 1-1 3-1 1-1 7-0</t>
+  </si>
+  <si>
+    <t>Molde,2-0 4-0 1-1 2-2 1-3 3-0</t>
+  </si>
+  <si>
+    <t>Odd,0-1 1-1 2-3 1-3 1-3 0-0</t>
+  </si>
+  <si>
+    <t>Rosenborg,2-1 3-2 1-3 3-1 1-0 2-2</t>
+  </si>
+  <si>
+    <t>Sandefjord,5-0 3-0 1-1 0-3 2-1 0-0</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,5-0 2-1 1-3 5-0 2-1 2-1</t>
+  </si>
+  <si>
+    <t>Stabaek,3-1 1-3 0-3 0-0 0-3 1-1</t>
+  </si>
+  <si>
+    <t>Stromsgodset,0-1 1-2 5-0 0-0 3-0 0-1</t>
+  </si>
+  <si>
+    <t>Tromso,2-3 3-2 1-1 1-2 2-0 3-0</t>
+  </si>
+  <si>
+    <t>Valerenga,3-1 3-0 1-1 1-0 3-0 2-2</t>
+  </si>
+  <si>
+    <t>Viking,2-1 1-3 1-3 2-2 2-1 0-1</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,1 0 2 1 3 1,(8)</t>
+  </si>
+  <si>
+    <t>Brann,-2 1 0 2 0 0,(1)</t>
+  </si>
+  <si>
+    <t>Haugesund,2 1 -1 -2 -2 7,(5)</t>
+  </si>
+  <si>
+    <t>Kristiansund,2 1 1 -2 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Lillestrom,1 -1 1 -1 -1 0,(-1)</t>
+  </si>
+  <si>
+    <t>Mjondalen,-1 -4 0 -2 0 -7,(-14)</t>
+  </si>
+  <si>
+    <t>Molde,-2 4 0 0 2 3,(7)</t>
+  </si>
+  <si>
+    <t>Odd,-1 0 -1 2 -2 0,(-2)</t>
+  </si>
+  <si>
+    <t>Rosenborg,-1 1 2 2 -1 0,(3)</t>
+  </si>
+  <si>
+    <t>Sandefjord,-5 3 0 -3 -1 0,(-6)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,5 -1 -2 -5 1 -1,(-3)</t>
+  </si>
+  <si>
+    <t>Stabaek,-2 -2 3 0 -3 0,(-4)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,1 -1 5 0 -3 -1,(1)</t>
+  </si>
+  <si>
+    <t>Tromso,-1 -1 0 1 2 -3,(-2)</t>
+  </si>
+  <si>
+    <t>Valerenga,2 -3 0 -1 3 0,(1)</t>
+  </si>
+  <si>
+    <t>Viking,1 2 -2 0 1 1,(3)</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,Tromso(13) Odd(10) Viking(5) Valerenga(8) Stabaek(15) Sarpsborg 08(12)</t>
+  </si>
+  <si>
+    <t>Brann,Haugesund(7) Lillestrom(6) Tromso(13) Kristiansund(3) Mjondalen(16) Stabaek(15)</t>
+  </si>
+  <si>
+    <t>Haugesund,Brann(14) Sarpsborg 08(12) Kristiansund(3) Odd(10) Tromso(13) Mjondalen(16)</t>
+  </si>
+  <si>
+    <t>Kristiansund,Molde(2) Stromsgodset(9) Haugesund(7) Brann(14) Rosenborg(4) Lillestrom(6)</t>
+  </si>
+  <si>
+    <t>Lillestrom,Mjondalen(16) Brann(14) Odd(10) Tromso(13) Sarpsborg 08(12) Kristiansund(3)</t>
+  </si>
+  <si>
+    <t>Mjondalen,Lillestrom(6) Molde(2) Sandefjord(11) Rosenborg(4) Brann(14) Haugesund(7)</t>
+  </si>
+  <si>
+    <t>Molde,Kristiansund(3) Mjondalen(16) Valerenga(8) Viking(5) Odd(10) Tromso(13)</t>
+  </si>
+  <si>
+    <t>Odd,Stromsgodset(9) Bodo/Glimt(1) Lillestrom(6) Haugesund(7) Molde(2) Sandefjord(11)</t>
+  </si>
+  <si>
+    <t>Rosenborg,Viking(5) Tromso(13) Sarpsborg 08(12) Mjondalen(16) Kristiansund(3) Valerenga(8)</t>
+  </si>
+  <si>
+    <t>Sandefjord,Sarpsborg 08(12) Valerenga(8) Mjondalen(16) Stabaek(15) Viking(5) Odd(10)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,Sandefjord(11) Haugesund(7) Rosenborg(4) Stromsgodset(9) Lillestrom(6) Bodo/Glimt(1)</t>
+  </si>
+  <si>
+    <t>Stabaek,Valerenga(8) Viking(5) Sandefjord(11) Stromsgodset(9) Bodo/Glimt(1) Brann(14)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,Odd(10) Kristiansund(3) Sarpsborg 08(12) Stabaek(15) Valerenga(8) Viking(5)</t>
+  </si>
+  <si>
+    <t>Tromso,Bodo/Glimt(1) Rosenborg(4) Brann(14) Lillestrom(6) Haugesund(7) Molde(2)</t>
+  </si>
+  <si>
+    <t>Valerenga,Stabaek(15) Sandefjord(11) Molde(2) Bodo/Glimt(1) Stromsgodset(9) Rosenborg(4)</t>
+  </si>
+  <si>
+    <t>Viking,Rosenborg(4) Stabaek(15) Bodo/Glimt(1) Molde(2) Sandefjord(11) Stromsgodset(9)</t>
   </si>
   <si>
     <t>nor_division</t>

--- a/NOR.xlsx
+++ b/NOR.xlsx
@@ -596,340 +596,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Bodo/Glimt,W W D W W L W W D L W L D D W W W D W W W W D W W D</t>
-  </si>
-  <si>
-    <t>Brann,L L L L L L W D L L D L D D W L L W D W D D D L L D</t>
-  </si>
-  <si>
-    <t>Haugesund,D D L W L W W D W L W D W L L L W W L L L W L D L D</t>
-  </si>
-  <si>
-    <t>Kristiansund,L L W W W W W L D D W L W L W L W W W L W D L L D W</t>
-  </si>
-  <si>
-    <t>Lillestrom,L L W L W W W D W D D W W D L W W L W L L D L W W D</t>
-  </si>
-  <si>
-    <t>Mjondalen,W D L D L D D L L W D D L L L D L L D L D L L W D L</t>
-  </si>
-  <si>
-    <t>Molde,W D W W L D W W W W W L W D W L L W D D W W W L L W</t>
-  </si>
-  <si>
-    <t>Odd,D D L W L D W W W D L W L L W L L D L W L D D L D L</t>
-  </si>
-  <si>
-    <t>Rosenborg,D W D W L W W L L L D D W W W W L W W W L D W D L D</t>
-  </si>
-  <si>
-    <t>Sandefjord,L W L L L W L W W W L D W D L D L W D L L D L W L L</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,D D L W D L W L L W L D D L L W W L L L W L W W W W</t>
-  </si>
-  <si>
-    <t>Stabaek,D D W L L L L L D L L L W W L D L L W D L D L L W L</t>
-  </si>
-  <si>
-    <t>Stromsgodset,W L D L W L D W L D D W W L L W W L W D L L D L W D</t>
-  </si>
-  <si>
-    <t>Tromso,L D W L D L W L L D L D L W D D L L D W W L W W D D</t>
-  </si>
-  <si>
-    <t>Valerenga,D W L D W W L D D W W D D L D D W L D L W D W L W D</t>
-  </si>
-  <si>
-    <t>Viking,W L L W W L W L W D D D L W W D W W L D W W W W L W</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,3 2 2 2 2 0 2 7 1 0 4 0 2 2 1 3 3 1 3 1 3 2 1 2 1 2,(52)</t>
-  </si>
-  <si>
-    <t>Brann,1 0 0 2 1 0 3 0 1 0 1 2 1 1 3 1 1 3 1 3 1 1 3 0 0 2,(32)</t>
-  </si>
-  <si>
-    <t>Haugesund,0 0 0 4 1 3 1 0 3 0 3 1 2 4 2 0 3 2 2 1 0 7 1 0 1 2,(43)</t>
-  </si>
-  <si>
-    <t>Kristiansund,0 0 2 1 1 1 2 0 1 0 3 0 2 2 5 0 2 2 3 1 1 0 1 0 1 4,(35)</t>
-  </si>
-  <si>
-    <t>Lillestrom,1 1 1 0 2 2 2 1 2 2 1 3 2 1 0 3 2 2 3 1 1 0 1 3 3 0,(40)</t>
-  </si>
-  <si>
-    <t>Mjondalen,3 1 1 0 0 1 1 1 1 3 1 1 1 2 1 1 1 0 1 1 1 0 0 5 2 0,(30)</t>
-  </si>
-  <si>
-    <t>Molde,2 3 4 3 2 0 3 4 2 2 3 0 5 1 5 2 0 4 1 2 3 3 3 0 0 3,(60)</t>
-  </si>
-  <si>
-    <t>Odd,2 1 0 1 0 1 3 3 2 2 0 3 0 2 4 0 0 1 2 3 1 0 3 0 2 2,(38)</t>
-  </si>
-  <si>
-    <t>Rosenborg,1 5 2 3 2 2 4 1 0 0 0 2 1 3 2 5 1 3 3 3 0 2 4 0 1 2,(52)</t>
-  </si>
-  <si>
-    <t>Sandefjord,0 3 1 1 1 3 0 1 2 2 0 1 3 1 2 1 0 3 1 0 1 0 1 2 0 1,(31)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,0 1 0 2 0 1 1 1 1 1 0 2 1 0 1 1 5 1 1 0 2 1 3 2 2 4,(34)</t>
-  </si>
-  <si>
-    <t>Stabaek,2 0 2 2 0 1 0 1 3 0 1 2 2 3 1 1 1 1 3 0 0 1 0 0 2 1,(30)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,3 0 1 0 2 2 1 4 0 1 1 2 3 1 0 3 1 1 5 0 0 0 1 0 6 1,(39)</t>
-  </si>
-  <si>
-    <t>Tromso,0 3 1 1 1 0 3 1 0 0 0 1 1 3 1 1 2 2 1 2 2 0 1 2 1 1,(31)</t>
-  </si>
-  <si>
-    <t>Valerenga,1 3 1 1 3 3 1 1 1 2 4 1 2 1 1 1 3 0 1 0 3 2 2 1 1 0,(40)</t>
-  </si>
-  <si>
-    <t>Viking,3 0 0 3 2 2 4 0 2 3 2 1 2 3 3 1 2 3 1 2 2 1 5 2 1 1,(51)</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,0 0 2 1 0 1 0 2 1 2 1 1 2 2 0 0 2 1 1 0 0 1 1 0 0 2,(23)</t>
-  </si>
-  <si>
-    <t>Brann,3 3 4 3 2 2 0 0 3 1 1 3 1 1 2 3 3 2 1 1 1 1 3 2 1 2,(49)</t>
-  </si>
-  <si>
-    <t>Haugesund,0 0 2 2 2 0 0 0 0 3 1 1 1 5 4 3 1 1 3 3 2 0 2 0 2 2,(40)</t>
-  </si>
-  <si>
-    <t>Kristiansund,2 2 1 0 0 0 0 3 1 0 2 1 0 3 1 3 0 1 2 3 0 0 3 5 1 2,(36)</t>
-  </si>
-  <si>
-    <t>Lillestrom,3 3 0 1 1 1 0 1 1 2 1 2 0 1 1 0 1 3 2 2 2 0 5 0 1 0,(34)</t>
-  </si>
-  <si>
-    <t>Mjondalen,0 1 2 0 2 1 1 2 2 0 1 1 2 3 2 1 2 4 1 3 1 7 1 0 2 1,(43)</t>
-  </si>
-  <si>
-    <t>Molde,0 3 0 2 3 0 1 1 1 0 0 1 0 1 4 3 2 0 1 2 1 0 0 2 6 1,(35)</t>
-  </si>
-  <si>
-    <t>Odd,2 1 1 0 2 1 1 0 1 2 5 2 3 3 2 5 1 1 3 1 3 0 3 2 2 4,(51)</t>
-  </si>
-  <si>
-    <t>Rosenborg,1 0 2 2 3 1 2 2 1 2 0 2 0 1 1 0 2 2 1 1 1 2 1 0 3 2,(35)</t>
-  </si>
-  <si>
-    <t>Sandefjord,3 1 2 3 3 0 4 0 0 0 2 1 2 1 3 1 5 0 1 3 2 0 4 0 1 3,(45)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,0 1 1 0 0 4 0 2 4 0 2 2 1 2 3 0 0 2 3 5 1 2 1 1 1 1,(39)</t>
-  </si>
-  <si>
-    <t>Stabaek,2 0 0 4 3 2 2 4 3 2 2 3 1 1 5 1 3 3 0 0 3 1 3 3 1 4,(56)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,1 1 1 3 1 7 1 0 3 1 1 1 0 2 1 1 0 2 0 0 3 1 1 2 0 1,(35)</t>
-  </si>
-  <si>
-    <t>Tromso,3 3 0 3 1 2 0 2 3 0 3 1 3 2 1 1 3 3 1 1 0 3 0 0 1 1,(41)</t>
-  </si>
-  <si>
-    <t>Valerenga,1 0 2 1 2 1 4 1 1 0 1 1 2 3 1 1 1 3 1 1 0 2 1 2 0 0,(33)</t>
-  </si>
-  <si>
-    <t>Viking,1 5 1 1 1 4 1 3 1 3 2 1 3 2 2 1 1 1 3 2 1 0 1 0 2 0,(43)</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,3 2 4 3 2 1 2 9 2 2 5 1 4 4 1 3 5 2 4 1 3 3 2 2 1 4,(75)</t>
-  </si>
-  <si>
-    <t>Brann,4 3 4 5 3 2 3 0 4 1 2 5 2 2 5 4 4 5 2 4 2 2 6 2 1 4,(81)</t>
-  </si>
-  <si>
-    <t>Haugesund,0 0 2 6 3 3 1 0 3 3 4 2 3 9 6 3 4 3 5 4 2 7 3 0 3 4,(83)</t>
-  </si>
-  <si>
-    <t>Kristiansund,2 2 3 1 1 1 2 3 2 0 5 1 2 5 6 3 2 3 5 4 1 0 4 5 2 6,(71)</t>
-  </si>
-  <si>
-    <t>Lillestrom,4 4 1 1 3 3 2 2 3 4 2 5 2 2 1 3 3 5 5 3 3 0 6 3 4 0,(74)</t>
-  </si>
-  <si>
-    <t>Mjondalen,3 2 3 0 2 2 2 3 3 3 2 2 3 5 3 2 3 4 2 4 2 7 1 5 4 1,(73)</t>
-  </si>
-  <si>
-    <t>Molde,2 6 4 5 5 0 4 5 3 2 3 1 5 2 9 5 2 4 2 4 4 3 3 2 6 4,(95)</t>
-  </si>
-  <si>
-    <t>Odd,4 2 1 1 2 2 4 3 3 4 5 5 3 5 6 5 1 2 5 4 4 0 6 2 4 6,(89)</t>
-  </si>
-  <si>
-    <t>Rosenborg,2 5 4 5 5 3 6 3 1 2 0 4 1 4 3 5 3 5 4 4 1 4 5 0 4 4,(87)</t>
-  </si>
-  <si>
-    <t>Sandefjord,3 4 3 4 4 3 4 1 2 2 2 2 5 2 5 2 5 3 2 3 3 0 5 2 1 4,(76)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,0 2 1 2 0 5 1 3 5 1 2 4 2 2 4 1 5 3 4 5 3 3 4 3 3 5,(73)</t>
-  </si>
-  <si>
-    <t>Stabaek,4 0 2 6 3 3 2 5 6 2 3 5 3 4 6 2 4 4 3 0 3 2 3 3 3 5,(86)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,4 1 2 3 3 9 2 4 3 2 2 3 3 3 1 4 1 3 5 0 3 1 2 2 6 2,(74)</t>
-  </si>
-  <si>
-    <t>Tromso,3 6 1 4 2 2 3 3 3 0 3 2 4 5 2 2 5 5 2 3 2 3 1 2 2 2,(72)</t>
-  </si>
-  <si>
-    <t>Valerenga,2 3 3 2 5 4 5 2 2 2 5 2 4 4 2 2 4 3 2 1 3 4 3 3 1 0,(73)</t>
-  </si>
-  <si>
-    <t>Viking,4 5 1 4 3 6 5 3 3 6 4 2 5 5 5 2 3 4 4 4 3 1 6 2 3 1,(94)</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,3-0 0-2 2-2 1-2 2-0 1-0 2-0 7-2 1-1 0-2 4-1 1-0 2-2 2-2 0-1 3-0 2-3 1-1 1-3 1-0 0-3 2-1 1-1 0-2 1-0 2-2</t>
-  </si>
-  <si>
-    <t>Brann,3-1 0-3 4-0 3-2 1-2 2-0 3-0 0-0 1-3 1-0 1-1 3-2 1-1 1-1 3-2 3-1 1-3 2-3 1-1 3-1 1-1 1-1 3-3 0-2 1-0 2-2</t>
-  </si>
-  <si>
-    <t>Haugesund,0-0 0-0 2-0 4-2 2-1 3-0 1-0 0-0 3-0 3-0 3-1 1-1 2-1 5-4 4-2 0-3 1-3 2-1 3-2 1-3 2-0 7-0 2-1 0-0 2-1 2-2</t>
-  </si>
-  <si>
-    <t>Kristiansund,2-0 0-2 1-2 1-0 0-1 1-0 2-0 3-0 1-1 0-0 3-2 1-0 2-0 3-2 5-1 3-0 2-0 1-2 3-2 3-1 1-0 0-0 1-3 5-0 1-1 2-4</t>
-  </si>
-  <si>
-    <t>Lillestrom,3-1 1-3 1-0 1-0 2-1 1-2 2-0 1-1 2-1 2-2 1-1 2-3 2-0 1-1 0-1 0-3 1-2 2-3 2-3 1-2 2-1 0-0 5-1 3-0 1-3 0-0</t>
-  </si>
-  <si>
-    <t>Mjondalen,0-3 1-1 2-1 0-0 2-0 1-1 1-1 1-2 2-1 3-0 1-1 1-1 1-2 2-3 1-2 1-1 1-2 4-0 1-1 3-1 1-1 7-0 1-0 5-0 2-2 0-1</t>
-  </si>
-  <si>
-    <t>Molde,2-0 3-3 4-0 2-3 2-3 0-0 1-3 4-1 2-1 0-2 3-0 1-0 5-0 1-1 5-4 3-2 2-0 4-0 1-1 2-2 1-3 3-0 0-3 0-2 6-0 3-1</t>
-  </si>
-  <si>
-    <t>Odd,2-2 1-1 1-0 1-0 2-0 1-1 1-3 3-0 1-2 2-2 5-0 3-2 3-0 2-3 4-2 5-0 0-1 1-1 2-3 1-3 1-3 0-0 3-3 2-0 2-2 2-4</t>
-  </si>
-  <si>
-    <t>Rosenborg,1-1 5-0 2-2 3-2 2-3 1-2 4-2 2-1 0-1 2-0 0-0 2-2 1-0 1-3 1-2 5-0 2-1 3-2 1-3 3-1 1-0 2-2 4-1 0-0 1-3 2-2</t>
-  </si>
-  <si>
-    <t>Sandefjord,0-3 1-3 1-2 3-1 1-3 3-0 4-0 1-0 0-2 2-0 2-0 1-1 2-3 1-1 3-2 1-1 5-0 3-0 1-1 0-3 2-1 0-0 4-1 2-0 1-0 3-1</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,0-0 1-1 0-1 0-2 0-0 4-1 0-1 1-2 4-1 1-0 2-0 2-2 1-1 2-0 3-1 1-0 5-0 2-1 1-3 5-0 2-1 2-1 1-3 2-1 1-2 4-1</t>
-  </si>
-  <si>
-    <t>Stabaek,2-2 0-0 2-0 4-2 0-3 2-1 0-2 4-1 3-3 0-2 2-1 2-3 1-2 3-1 5-1 1-1 3-1 1-3 0-3 0-0 0-3 1-1 0-3 3-0 2-1 4-1</t>
-  </si>
-  <si>
-    <t>Stromsgodset,3-1 1-0 1-1 3-0 2-1 7-2 1-1 4-0 3-0 1-1 1-1 2-1 3-0 2-1 1-0 3-1 0-1 1-2 5-0 0-0 3-0 0-1 1-1 2-0 6-0 1-1</t>
-  </si>
-  <si>
-    <t>Tromso,3-0 3-3 0-1 1-3 1-1 0-2 0-3 1-2 3-0 0-0 3-0 1-1 1-3 2-3 1-1 1-1 2-3 3-2 1-1 1-2 2-0 3-0 1-0 2-0 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Valerenga,1-1 0-3 1-2 1-1 2-3 3-1 4-1 1-1 1-1 0-2 4-1 1-1 2-2 3-1 1-1 1-1 3-1 3-0 1-1 1-0 3-0 2-2 2-1 2-1 1-0 0-0</t>
-  </si>
-  <si>
-    <t>Viking,3-1 5-0 0-1 1-3 2-1 4-2 4-1 3-0 1-2 3-3 2-2 1-1 3-2 3-2 3-2 1-1 2-1 1-3 1-3 2-2 2-1 0-1 5-1 0-2 1-2 0-1</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,3 2 0 1 2 -1 2 5 0 -2 3 -1 0 0 1 3 1 0 2 1 3 1 0 2 1 0,(29)</t>
-  </si>
-  <si>
-    <t>Brann,-2 -3 -4 -1 -1 -2 3 0 -2 -1 0 -1 0 0 1 -2 -2 1 0 2 0 0 0 -2 -1 0,(-17)</t>
-  </si>
-  <si>
-    <t>Haugesund,0 0 -2 2 -1 3 1 0 3 -3 2 0 1 -1 -2 -3 2 1 -1 -2 -2 7 -1 0 -1 0,(3)</t>
-  </si>
-  <si>
-    <t>Kristiansund,-2 -2 1 1 1 1 2 -3 0 0 1 -1 2 -1 4 -3 2 1 1 -2 1 0 -2 -5 0 2,(-1)</t>
-  </si>
-  <si>
-    <t>Lillestrom,-2 -2 1 -1 1 1 2 0 1 0 0 1 2 0 -1 3 1 -1 1 -1 -1 0 -4 3 2 0,(6)</t>
-  </si>
-  <si>
-    <t>Mjondalen,3 0 -1 0 -2 0 0 -1 -1 3 0 0 -1 -1 -1 0 -1 -4 0 -2 0 -7 -1 5 0 -1,(-13)</t>
-  </si>
-  <si>
-    <t>Molde,2 0 4 1 -1 0 2 3 1 2 3 -1 5 0 1 -1 -2 4 0 0 2 3 3 -2 -6 2,(25)</t>
-  </si>
-  <si>
-    <t>Odd,0 0 -1 1 -2 0 2 3 1 0 -5 1 -3 -1 2 -5 -1 0 -1 2 -2 0 0 -2 0 -2,(-13)</t>
-  </si>
-  <si>
-    <t>Rosenborg,0 5 0 1 -1 1 2 -1 -1 -2 0 0 1 2 1 5 -1 1 2 2 -1 0 3 0 -2 0,(17)</t>
-  </si>
-  <si>
-    <t>Sandefjord,-3 2 -1 -2 -2 3 -4 1 2 2 -2 0 1 0 -1 0 -5 3 0 -3 -1 0 -3 2 -1 -2,(-14)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,0 0 -1 2 0 -3 1 -1 -3 1 -2 0 0 -2 -2 1 5 -1 -2 -5 1 -1 2 1 1 3,(-5)</t>
-  </si>
-  <si>
-    <t>Stabaek,0 0 2 -2 -3 -1 -2 -3 0 -2 -1 -1 1 2 -4 0 -2 -2 3 0 -3 0 -3 -3 1 -3,(-26)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,2 -1 0 -3 1 -5 0 4 -3 0 0 1 3 -1 -1 2 1 -1 5 0 -3 -1 0 -2 6 0,(4)</t>
-  </si>
-  <si>
-    <t>Tromso,-3 0 1 -2 0 -2 3 -1 -3 0 -3 0 -2 1 0 0 -1 -1 0 1 2 -3 1 2 0 0,(-10)</t>
-  </si>
-  <si>
-    <t>Valerenga,0 3 -1 0 1 2 -3 0 0 2 3 0 0 -2 0 0 2 -3 0 -1 3 0 1 -1 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Viking,2 -5 -1 2 1 -2 3 -3 1 0 0 0 -1 1 1 0 1 2 -2 0 1 1 4 2 -1 1,(8)</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,Tromso(11) Kristiansund(4) Rosenborg(5) Brann(14) Haugesund(10) Odd(12) Mjondalen(16) Stromsgodset(9) Valerenga(7) Molde(2) Stabaek(15) Sandefjord(13) Viking(3) Sarpsborg 08(8) Lillestrom(6) Kristiansund(4) Tromso(11) Odd(12) Viking(3) Valerenga(7) Stabaek(15) Sarpsborg 08(8) Stromsgodset(9) Molde(2) Sandefjord(13) Haugesund(10)</t>
-  </si>
-  <si>
-    <t>Brann,Viking(3) Valerenga(7) Molde(2) Rosenborg(5) Bodo/Glimt(1) Stabaek(15) Stromsgodset(9) Sarpsborg 08(8) Odd(12) Haugesund(10) Lillestrom(6) Kristiansund(4) Tromso(11) Mjondalen(16) Sandefjord(13) Stromsgodset(9) Haugesund(10) Lillestrom(6) Tromso(11) Kristiansund(4) Mjondalen(16) Stabaek(15) Odd(12) Viking(3) Valerenga(7) Rosenborg(5)</t>
-  </si>
-  <si>
-    <t>Haugesund,Sarpsborg 08(8) Stabaek(15) Bodo/Glimt(1) Viking(3) Lillestrom(6) Kristiansund(4) Brann(14) Rosenborg(5) Tromso(11) Mjondalen(16) Valerenga(7) Sandefjord(13) Stromsgodset(9) Molde(2) Odd(12) Lillestrom(6) Brann(14) Sarpsborg 08(8) Kristiansund(4) Odd(12) Tromso(11) Mjondalen(16) Valerenga(7) Rosenborg(5) Stabaek(15) Bodo/Glimt(1)</t>
-  </si>
-  <si>
-    <t>Kristiansund,Molde(2) Bodo/Glimt(1) Valerenga(7) Stromsgodset(9) Sarpsborg 08(8) Lillestrom(6) Odd(12) Haugesund(10) Mjondalen(16) Tromso(11) Brann(14) Rosenborg(5) Sandefjord(13) Viking(3) Stabaek(15) Bodo/Glimt(1) Molde(2) Stromsgodset(9) Haugesund(10) Brann(14) Rosenborg(5) Lillestrom(6) Sarpsborg 08(8) Mjondalen(16) Tromso(11) Odd(12)</t>
-  </si>
-  <si>
-    <t>Lillestrom,Stromsgodset(9) Viking(3) Odd(12) Kristiansund(4) Haugesund(10) Tromso(11) Rosenborg(5) Brann(14) Mjondalen(16) Valerenga(7) Molde(2) Stabaek(15) Sarpsborg 08(8) Sandefjord(13) Bodo/Glimt(1) Haugesund(10) Mjondalen(16) Brann(14) Odd(12) Tromso(11) Sarpsborg 08(8) Kristiansund(4) Viking(3) Stabaek(15) Rosenborg(5) Valerenga(7)</t>
-  </si>
-  <si>
-    <t>Mjondalen,Sandefjord(13) Valerenga(7) Viking(3) Molde(2) Bodo/Glimt(1) Stromsgodset(9) Kristiansund(4) Odd(12) Lillestrom(6) Haugesund(10) Brann(14) Sarpsborg 08(8) Stabaek(15) Tromso(11) Rosenborg(5) Stabaek(15) Lillestrom(6) Molde(2) Sandefjord(13) Rosenborg(5) Brann(14) Haugesund(10) Tromso(11) Kristiansund(4) Odd(12) Viking(3)</t>
-  </si>
-  <si>
-    <t>Molde,Kristiansund(4) Tromso(11) Brann(14) Rosenborg(5) Valerenga(7) Mjondalen(16) Sandefjord(13) Sarpsborg 08(8) Stabaek(15) Bodo/Glimt(1) Stromsgodset(9) Sarpsborg 08(8) Odd(12) Lillestrom(6) Haugesund(10) Viking(3) Kristiansund(4) Mjondalen(16) Valerenga(7) Viking(3) Odd(12) Tromso(11) Stabaek(15) Bodo/Glimt(1) Stromsgodset(9) Sandefjord(13)</t>
-  </si>
-  <si>
-    <t>Odd,Stabaek(15) Sarpsborg 08(8) Lillestrom(6) Bodo/Glimt(1) Kristiansund(4) Valerenga(7) Brann(14) Tromso(11) Mjondalen(16) Rosenborg(5) Molde(2) Viking(3) Stromsgodset(9) Sandefjord(13) Haugesund(10) Rosenborg(5) Stromsgodset(9) Bodo/Glimt(1) Lillestrom(6) Haugesund(10) Molde(2) Sandefjord(13) Brann(14) Tromso(11) Mjondalen(16) Kristiansund(4)</t>
-  </si>
-  <si>
-    <t>Rosenborg,Valerenga(7) Viking(3) Bodo/Glimt(1) Brann(14) Molde(2) Sandefjord(13) Stabaek(15) Stromsgodset(9) Sarpsborg 08(8) Lillestrom(6) Haugesund(10) Odd(12) Kristiansund(4) Tromso(11) Mjondalen(16) Odd(12) Viking(3) Tromso(11) Sarpsborg 08(8) Mjondalen(16) Kristiansund(4) Valerenga(7) Sandefjord(13) Haugesund(10) Lillestrom(6) Brann(14)</t>
-  </si>
-  <si>
-    <t>Sandefjord,Mjondalen(16) Tromso(11) Rosenborg(5) Valerenga(7) Molde(2) Viking(3) Stromsgodset(9) Bodo/Glimt(1) Stabaek(15) Sarpsborg 08(8) Kristiansund(4) Haugesund(10) Odd(12) Lillestrom(6) Brann(14) Tromso(11) Sarpsborg 08(8) Valerenga(7) Mjondalen(16) Stabaek(15) Viking(3) Odd(12) Rosenborg(5) Stromsgodset(9) Bodo/Glimt(1) Molde(2)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,Haugesund(10) Odd(12) Kristiansund(4) Tromso(11) Brann(14) Molde(2) Rosenborg(5) Viking(3) Valerenga(7) Molde(2) Sandefjord(13) Bodo/Glimt(1) Mjondalen(16) Lillestrom(6) Stabaek(15) Stromsgodset(9) Sandefjord(13) Haugesund(10) Rosenborg(5) Stromsgodset(9) Lillestrom(6) Bodo/Glimt(1) Kristiansund(4) Valerenga(7) Viking(3) Stabaek(15)</t>
-  </si>
-  <si>
-    <t>Stabaek,Odd(12) Haugesund(10) Brann(14) Rosenborg(5) Tromso(11) Molde(2) Valerenga(7) Bodo/Glimt(1) Viking(3) Sandefjord(13) Stromsgodset(9) Lillestrom(6) Mjondalen(16) Sarpsborg 08(8) Kristiansund(4) Mjondalen(16) Valerenga(7) Viking(3) Sandefjord(13) Stromsgodset(9) Bodo/Glimt(1) Brann(14) Molde(2) Lillestrom(6) Haugesund(10) Sarpsborg 08(8)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,Lillestrom(6) Kristiansund(4) Tromso(11) Brann(14) Rosenborg(5) Bodo/Glimt(1) Mjondalen(16) Sandefjord(13) Molde(2) Valerenga(7) Viking(3) Stabaek(15) Odd(12) Haugesund(10) Sarpsborg 08(8) Brann(14) Odd(12) Kristiansund(4) Sarpsborg 08(8) Stabaek(15) Valerenga(7) Viking(3) Bodo/Glimt(1) Sandefjord(13) Molde(2) Tromso(11)</t>
-  </si>
-  <si>
-    <t>Tromso,Bodo/Glimt(1) Molde(2) Viking(3) Sandefjord(13) Stromsgodset(9) Sarpsborg 08(8) Stabaek(15) Lillestrom(6) Odd(12) Kristiansund(4) Haugesund(10) Brann(14) Rosenborg(5) Mjondalen(16) Valerenga(7) Sandefjord(13) Bodo/Glimt(1) Rosenborg(5) Brann(14) Lillestrom(6) Haugesund(10) Molde(2) Mjondalen(16) Odd(12) Kristiansund(4) Stromsgodset(9)</t>
-  </si>
-  <si>
-    <t>Valerenga,Rosenborg(5) Brann(14) Kristiansund(4) Mjondalen(16) Molde(2) Sandefjord(13) Viking(3) Odd(12) Bodo/Glimt(1) Stabaek(15) Sarpsborg 08(8) Stromsgodset(9) Lillestrom(6) Haugesund(10) Tromso(11) Viking(3) Stabaek(15) Sandefjord(13) Molde(2) Bodo/Glimt(1) Stromsgodset(9) Rosenborg(5) Haugesund(10) Sarpsborg 08(8) Brann(14) Lillestrom(6)</t>
-  </si>
-  <si>
-    <t>Viking,Brann(14) Rosenborg(5) Tromso(11) Lillestrom(6) Mjondalen(16) Haugesund(10) Valerenga(7) Sandefjord(13) Sarpsborg 08(8) Stabaek(15) Bodo/Glimt(1) Stromsgodset(9) Odd(12) Kristiansund(4) Molde(2) Valerenga(7) Rosenborg(5) Stabaek(15) Bodo/Glimt(1) Molde(2) Sandefjord(13) Stromsgodset(9) Lillestrom(6) Brann(14) Sarpsborg 08(8) Mjondalen(16)</t>
+    <t>Bodo/Glimt,W W D W W D</t>
+  </si>
+  <si>
+    <t>Brann,D D D L L D</t>
+  </si>
+  <si>
+    <t>Haugesund,L W L D L D</t>
+  </si>
+  <si>
+    <t>Kristiansund,W D L L D W</t>
+  </si>
+  <si>
+    <t>Lillestrom,L D L W W D</t>
+  </si>
+  <si>
+    <t>Mjondalen,D L L W D L</t>
+  </si>
+  <si>
+    <t>Molde,W W W L L W</t>
+  </si>
+  <si>
+    <t>Odd,L D D L D L</t>
+  </si>
+  <si>
+    <t>Rosenborg,L D W D L D</t>
+  </si>
+  <si>
+    <t>Sandefjord,L D L W L L</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,W L W W W W</t>
+  </si>
+  <si>
+    <t>Stabaek,L D L L W L</t>
+  </si>
+  <si>
+    <t>Stromsgodset,L L D L W D</t>
+  </si>
+  <si>
+    <t>Tromso,W L W W D D</t>
+  </si>
+  <si>
+    <t>Valerenga,W D W L W D</t>
+  </si>
+  <si>
+    <t>Viking,W W W W L W</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,3 2 1 2 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Brann,1 1 3 0 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Haugesund,0 7 1 0 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Kristiansund,1 0 1 0 1 4,(7)</t>
+  </si>
+  <si>
+    <t>Lillestrom,1 0 1 3 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Mjondalen,1 0 0 5 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Molde,3 3 3 0 0 3,(12)</t>
+  </si>
+  <si>
+    <t>Odd,1 0 3 0 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Rosenborg,0 2 4 0 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Sandefjord,1 0 1 2 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,2 1 3 2 2 4,(14)</t>
+  </si>
+  <si>
+    <t>Stabaek,0 1 0 0 2 1,(4)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,0 0 1 0 6 1,(8)</t>
+  </si>
+  <si>
+    <t>Tromso,2 0 1 2 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Valerenga,3 2 2 1 1 0,(9)</t>
+  </si>
+  <si>
+    <t>Viking,2 1 5 2 1 1,(12)</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,0 1 1 0 0 2,(4)</t>
+  </si>
+  <si>
+    <t>Brann,1 1 3 2 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Haugesund,2 0 2 0 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Kristiansund,0 0 3 5 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Lillestrom,2 0 5 0 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Mjondalen,1 7 1 0 2 1,(12)</t>
+  </si>
+  <si>
+    <t>Molde,1 0 0 2 6 1,(10)</t>
+  </si>
+  <si>
+    <t>Odd,3 0 3 2 2 4,(14)</t>
+  </si>
+  <si>
+    <t>Rosenborg,1 2 1 0 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Sandefjord,2 0 4 0 1 3,(10)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,1 2 1 1 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Stabaek,3 1 3 3 1 4,(15)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,3 1 1 2 0 1,(8)</t>
+  </si>
+  <si>
+    <t>Tromso,0 3 0 0 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Valerenga,0 2 1 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Viking,1 0 1 0 2 0,(4)</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,3 3 2 2 1 4,(15)</t>
+  </si>
+  <si>
+    <t>Brann,2 2 6 2 1 4,(17)</t>
+  </si>
+  <si>
+    <t>Haugesund,2 7 3 0 3 4,(19)</t>
+  </si>
+  <si>
+    <t>Kristiansund,1 0 4 5 2 6,(18)</t>
+  </si>
+  <si>
+    <t>Lillestrom,3 0 6 3 4 0,(16)</t>
+  </si>
+  <si>
+    <t>Mjondalen,2 7 1 5 4 1,(20)</t>
+  </si>
+  <si>
+    <t>Molde,4 3 3 2 6 4,(22)</t>
+  </si>
+  <si>
+    <t>Odd,4 0 6 2 4 6,(22)</t>
+  </si>
+  <si>
+    <t>Rosenborg,1 4 5 0 4 4,(18)</t>
+  </si>
+  <si>
+    <t>Sandefjord,3 0 5 2 1 4,(15)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,3 3 4 3 3 5,(21)</t>
+  </si>
+  <si>
+    <t>Stabaek,3 2 3 3 3 5,(19)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,3 1 2 2 6 2,(16)</t>
+  </si>
+  <si>
+    <t>Tromso,2 3 1 2 2 2,(12)</t>
+  </si>
+  <si>
+    <t>Valerenga,3 4 3 3 1 0,(14)</t>
+  </si>
+  <si>
+    <t>Viking,3 1 6 2 3 1,(16)</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,0-3 2-1 1-1 0-2 1-0 2-2</t>
+  </si>
+  <si>
+    <t>Brann,1-1 1-1 3-3 0-2 1-0 2-2</t>
+  </si>
+  <si>
+    <t>Haugesund,2-0 7-0 2-1 0-0 2-1 2-2</t>
+  </si>
+  <si>
+    <t>Kristiansund,1-0 0-0 1-3 5-0 1-1 2-4</t>
+  </si>
+  <si>
+    <t>Lillestrom,2-1 0-0 5-1 3-0 1-3 0-0</t>
+  </si>
+  <si>
+    <t>Mjondalen,1-1 7-0 1-0 5-0 2-2 0-1</t>
+  </si>
+  <si>
+    <t>Molde,1-3 3-0 0-3 0-2 6-0 3-1</t>
+  </si>
+  <si>
+    <t>Odd,1-3 0-0 3-3 2-0 2-2 2-4</t>
+  </si>
+  <si>
+    <t>Rosenborg,1-0 2-2 4-1 0-0 1-3 2-2</t>
+  </si>
+  <si>
+    <t>Sandefjord,2-1 0-0 4-1 2-0 1-0 3-1</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,2-1 2-1 1-3 2-1 1-2 4-1</t>
+  </si>
+  <si>
+    <t>Stabaek,0-3 1-1 0-3 3-0 2-1 4-1</t>
+  </si>
+  <si>
+    <t>Stromsgodset,3-0 0-1 1-1 2-0 6-0 1-1</t>
+  </si>
+  <si>
+    <t>Tromso,2-0 3-0 1-0 2-0 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Valerenga,3-0 2-2 2-1 2-1 1-0 0-0</t>
+  </si>
+  <si>
+    <t>Viking,2-1 0-1 5-1 0-2 1-2 0-1</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,3 1 0 2 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Brann,0 0 0 -2 -1 0,(-3)</t>
+  </si>
+  <si>
+    <t>Haugesund,-2 7 -1 0 -1 0,(3)</t>
+  </si>
+  <si>
+    <t>Kristiansund,1 0 -2 -5 0 2,(-4)</t>
+  </si>
+  <si>
+    <t>Lillestrom,-1 0 -4 3 2 0,(0)</t>
+  </si>
+  <si>
+    <t>Mjondalen,0 -7 -1 5 0 -1,(-4)</t>
+  </si>
+  <si>
+    <t>Molde,2 3 3 -2 -6 2,(2)</t>
+  </si>
+  <si>
+    <t>Odd,-2 0 0 -2 0 -2,(-6)</t>
+  </si>
+  <si>
+    <t>Rosenborg,-1 0 3 0 -2 0,(0)</t>
+  </si>
+  <si>
+    <t>Sandefjord,-1 0 -3 2 -1 -2,(-5)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,1 -1 2 1 1 3,(7)</t>
+  </si>
+  <si>
+    <t>Stabaek,-3 0 -3 -3 1 -3,(-11)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,-3 -1 0 -2 6 0,(0)</t>
+  </si>
+  <si>
+    <t>Tromso,2 -3 1 2 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Valerenga,3 0 1 -1 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Viking,1 1 4 2 -1 1,(8)</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,Stabaek(15) Sarpsborg 08(8) Stromsgodset(9) Molde(2) Sandefjord(13) Haugesund(10)</t>
+  </si>
+  <si>
+    <t>Brann,Mjondalen(16) Stabaek(15) Odd(12) Viking(3) Valerenga(7) Rosenborg(5)</t>
+  </si>
+  <si>
+    <t>Haugesund,Tromso(11) Mjondalen(16) Valerenga(7) Rosenborg(5) Stabaek(15) Bodo/Glimt(1)</t>
+  </si>
+  <si>
+    <t>Kristiansund,Rosenborg(5) Lillestrom(6) Sarpsborg 08(8) Mjondalen(16) Tromso(11) Odd(12)</t>
+  </si>
+  <si>
+    <t>Lillestrom,Sarpsborg 08(8) Kristiansund(4) Viking(3) Stabaek(15) Rosenborg(5) Valerenga(7)</t>
+  </si>
+  <si>
+    <t>Mjondalen,Brann(14) Haugesund(10) Tromso(11) Kristiansund(4) Odd(12) Viking(3)</t>
+  </si>
+  <si>
+    <t>Molde,Odd(12) Tromso(11) Stabaek(15) Bodo/Glimt(1) Stromsgodset(9) Sandefjord(13)</t>
+  </si>
+  <si>
+    <t>Odd,Molde(2) Sandefjord(13) Brann(14) Tromso(11) Mjondalen(16) Kristiansund(4)</t>
+  </si>
+  <si>
+    <t>Rosenborg,Kristiansund(4) Valerenga(7) Sandefjord(13) Haugesund(10) Lillestrom(6) Brann(14)</t>
+  </si>
+  <si>
+    <t>Sandefjord,Viking(3) Odd(12) Rosenborg(5) Stromsgodset(9) Bodo/Glimt(1) Molde(2)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,Lillestrom(6) Bodo/Glimt(1) Kristiansund(4) Valerenga(7) Viking(3) Stabaek(15)</t>
+  </si>
+  <si>
+    <t>Stabaek,Bodo/Glimt(1) Brann(14) Molde(2) Lillestrom(6) Haugesund(10) Sarpsborg 08(8)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,Valerenga(7) Viking(3) Bodo/Glimt(1) Sandefjord(13) Molde(2) Tromso(11)</t>
+  </si>
+  <si>
+    <t>Tromso,Haugesund(10) Molde(2) Mjondalen(16) Odd(12) Kristiansund(4) Stromsgodset(9)</t>
+  </si>
+  <si>
+    <t>Valerenga,Stromsgodset(9) Rosenborg(5) Haugesund(10) Sarpsborg 08(8) Brann(14) Lillestrom(6)</t>
+  </si>
+  <si>
+    <t>Viking,Sandefjord(13) Stromsgodset(9) Lillestrom(6) Brann(14) Sarpsborg 08(8) Mjondalen(16)</t>
   </si>
   <si>
     <t>nor_division</t>

--- a/NOR.xlsx
+++ b/NOR.xlsx
@@ -599,340 +599,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Bodo/Glimt,W D W W D W</t>
-  </si>
-  <si>
-    <t>Brann,D D L L D D</t>
-  </si>
-  <si>
-    <t>Haugesund,W L D L D D</t>
-  </si>
-  <si>
-    <t>Kristiansund,D L L D W L</t>
-  </si>
-  <si>
-    <t>Lillestrom,D L W W D L</t>
-  </si>
-  <si>
-    <t>Mjondalen,L L W D L W</t>
-  </si>
-  <si>
-    <t>Molde,W W L L W W</t>
-  </si>
-  <si>
-    <t>Odd,D D L D L D</t>
-  </si>
-  <si>
-    <t>Rosenborg,D W D L D L</t>
-  </si>
-  <si>
-    <t>Sandefjord,D L W L L D</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,L W W W W D</t>
-  </si>
-  <si>
-    <t>Stabaek,D L L W L W</t>
-  </si>
-  <si>
-    <t>Stromsgodset,L D L W D L</t>
-  </si>
-  <si>
-    <t>Tromso,L W W D D D</t>
-  </si>
-  <si>
-    <t>Valerenga,D W L W D D</t>
-  </si>
-  <si>
-    <t>Viking,W W W L W D</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,2 1 2 1 2 2,(10)</t>
-  </si>
-  <si>
-    <t>Brann,1 3 0 0 2 2,(8)</t>
-  </si>
-  <si>
-    <t>Haugesund,7 1 0 1 2 1,(12)</t>
-  </si>
-  <si>
-    <t>Kristiansund,0 1 0 1 4 0,(6)</t>
-  </si>
-  <si>
-    <t>Lillestrom,0 1 3 3 0 0,(7)</t>
-  </si>
-  <si>
-    <t>Mjondalen,0 0 5 2 0 2,(9)</t>
-  </si>
-  <si>
-    <t>Molde,3 3 0 0 3 4,(13)</t>
-  </si>
-  <si>
-    <t>Odd,0 3 0 2 2 1,(8)</t>
-  </si>
-  <si>
-    <t>Rosenborg,2 4 0 1 2 1,(10)</t>
-  </si>
-  <si>
-    <t>Sandefjord,0 1 2 0 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,1 3 2 2 4 1,(13)</t>
-  </si>
-  <si>
-    <t>Stabaek,1 0 0 2 1 3,(7)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,0 1 0 6 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Tromso,0 1 2 1 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Valerenga,2 2 1 1 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Viking,1 5 2 1 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,1 1 0 0 2 0,(4)</t>
-  </si>
-  <si>
-    <t>Brann,1 3 2 1 2 2,(11)</t>
-  </si>
-  <si>
-    <t>Haugesund,0 2 0 2 2 1,(7)</t>
-  </si>
-  <si>
-    <t>Kristiansund,0 3 5 1 2 3,(14)</t>
-  </si>
-  <si>
-    <t>Lillestrom,0 5 0 1 0 2,(8)</t>
-  </si>
-  <si>
-    <t>Mjondalen,7 1 0 2 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Molde,0 0 2 6 1 1,(10)</t>
-  </si>
-  <si>
-    <t>Odd,0 3 2 2 4 1,(12)</t>
-  </si>
-  <si>
-    <t>Rosenborg,2 1 0 3 2 4,(12)</t>
-  </si>
-  <si>
-    <t>Sandefjord,0 4 0 1 3 2,(10)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,2 1 1 1 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Stabaek,1 3 3 1 4 0,(12)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,1 1 2 0 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Tromso,3 0 0 1 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Valerenga,2 1 2 0 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Viking,0 1 0 2 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,3 2 2 1 4 2,(14)</t>
-  </si>
-  <si>
-    <t>Brann,2 6 2 1 4 4,(19)</t>
-  </si>
-  <si>
-    <t>Haugesund,7 3 0 3 4 2,(19)</t>
-  </si>
-  <si>
-    <t>Kristiansund,0 4 5 2 6 3,(20)</t>
-  </si>
-  <si>
-    <t>Lillestrom,0 6 3 4 0 2,(15)</t>
-  </si>
-  <si>
-    <t>Mjondalen,7 1 5 4 1 3,(21)</t>
-  </si>
-  <si>
-    <t>Molde,3 3 2 6 4 5,(23)</t>
-  </si>
-  <si>
-    <t>Odd,0 6 2 4 6 2,(20)</t>
-  </si>
-  <si>
-    <t>Rosenborg,4 5 0 4 4 5,(22)</t>
-  </si>
-  <si>
-    <t>Sandefjord,0 5 2 1 4 4,(16)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,3 4 3 3 5 2,(20)</t>
-  </si>
-  <si>
-    <t>Stabaek,2 3 3 3 5 3,(19)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,1 2 2 6 2 3,(16)</t>
-  </si>
-  <si>
-    <t>Tromso,3 1 2 2 2 2,(12)</t>
-  </si>
-  <si>
-    <t>Valerenga,4 3 3 1 0 2,(13)</t>
-  </si>
-  <si>
-    <t>Viking,1 6 2 3 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,2-1 1-1 0-2 1-0 2-2 2-0</t>
-  </si>
-  <si>
-    <t>Brann,1-1 3-3 0-2 1-0 2-2 2-2</t>
-  </si>
-  <si>
-    <t>Haugesund,7-0 2-1 0-0 2-1 2-2 1-1</t>
-  </si>
-  <si>
-    <t>Kristiansund,0-0 1-3 5-0 1-1 2-4 3-0</t>
-  </si>
-  <si>
-    <t>Lillestrom,0-0 5-1 3-0 1-3 0-0 2-0</t>
-  </si>
-  <si>
-    <t>Mjondalen,7-0 1-0 5-0 2-2 0-1 1-2</t>
-  </si>
-  <si>
-    <t>Molde,3-0 0-3 0-2 6-0 3-1 4-1</t>
-  </si>
-  <si>
-    <t>Odd,0-0 3-3 2-0 2-2 2-4 1-1</t>
-  </si>
-  <si>
-    <t>Rosenborg,2-2 4-1 0-0 1-3 2-2 4-1</t>
-  </si>
-  <si>
-    <t>Sandefjord,0-0 4-1 2-0 1-0 3-1 2-2</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,2-1 1-3 2-1 1-2 4-1 1-1</t>
-  </si>
-  <si>
-    <t>Stabaek,1-1 0-3 3-0 2-1 4-1 3-0</t>
-  </si>
-  <si>
-    <t>Stromsgodset,0-1 1-1 2-0 6-0 1-1 1-2</t>
-  </si>
-  <si>
-    <t>Tromso,3-0 1-0 2-0 1-1 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Valerenga,2-2 2-1 2-1 1-0 0-0 1-1</t>
-  </si>
-  <si>
-    <t>Viking,0-1 5-1 0-2 1-2 0-1 1-1</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,1 0 2 1 0 2,(6)</t>
-  </si>
-  <si>
-    <t>Brann,0 0 -2 -1 0 0,(-3)</t>
-  </si>
-  <si>
-    <t>Haugesund,7 -1 0 -1 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Kristiansund,0 -2 -5 0 2 -3,(-8)</t>
-  </si>
-  <si>
-    <t>Lillestrom,0 -4 3 2 0 -2,(-1)</t>
-  </si>
-  <si>
-    <t>Mjondalen,-7 -1 5 0 -1 1,(-3)</t>
-  </si>
-  <si>
-    <t>Molde,3 3 -2 -6 2 3,(3)</t>
-  </si>
-  <si>
-    <t>Odd,0 0 -2 0 -2 0,(-4)</t>
-  </si>
-  <si>
-    <t>Rosenborg,0 3 0 -2 0 -3,(-2)</t>
-  </si>
-  <si>
-    <t>Sandefjord,0 -3 2 -1 -2 0,(-4)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,-1 2 1 1 3 0,(6)</t>
-  </si>
-  <si>
-    <t>Stabaek,0 -3 -3 1 -3 3,(-5)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,-1 0 -2 6 0 -1,(2)</t>
-  </si>
-  <si>
-    <t>Tromso,-3 1 2 0 0 0,(0)</t>
-  </si>
-  <si>
-    <t>Valerenga,0 1 -1 1 0 0,(1)</t>
-  </si>
-  <si>
-    <t>Viking,1 4 2 -1 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt,Sarpsborg 08(8) Stromsgodset(10) Molde(2) Sandefjord(13) Haugesund(9) Lillestrom(6)</t>
-  </si>
-  <si>
-    <t>Brann,Stabaek(14) Odd(12) Viking(3) Valerenga(7) Rosenborg(5) Sandefjord(13)</t>
-  </si>
-  <si>
-    <t>Haugesund,Mjondalen(16) Valerenga(7) Rosenborg(5) Stabaek(14) Bodo/Glimt(1) Viking(3)</t>
-  </si>
-  <si>
-    <t>Kristiansund,Lillestrom(6) Sarpsborg 08(8) Mjondalen(16) Tromso(11) Odd(12) Stabaek(14)</t>
-  </si>
-  <si>
-    <t>Lillestrom,Kristiansund(4) Viking(3) Stabaek(14) Rosenborg(5) Valerenga(7) Bodo/Glimt(1)</t>
-  </si>
-  <si>
-    <t>Mjondalen,Haugesund(9) Tromso(11) Kristiansund(4) Odd(12) Viking(3) Stromsgodset(10)</t>
-  </si>
-  <si>
-    <t>Molde,Tromso(11) Stabaek(14) Bodo/Glimt(1) Stromsgodset(10) Sandefjord(13) Rosenborg(5)</t>
-  </si>
-  <si>
-    <t>Odd,Sandefjord(13) Brann(15) Tromso(11) Mjondalen(16) Kristiansund(4) Sarpsborg 08(8)</t>
-  </si>
-  <si>
-    <t>Rosenborg,Valerenga(7) Sandefjord(13) Haugesund(9) Lillestrom(6) Brann(15) Molde(2)</t>
-  </si>
-  <si>
-    <t>Sandefjord,Odd(12) Rosenborg(5) Stromsgodset(10) Bodo/Glimt(1) Molde(2) Brann(15)</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08,Bodo/Glimt(1) Kristiansund(4) Valerenga(7) Viking(3) Stabaek(14) Odd(12)</t>
-  </si>
-  <si>
-    <t>Stabaek,Brann(15) Molde(2) Lillestrom(6) Haugesund(9) Sarpsborg 08(8) Kristiansund(4)</t>
-  </si>
-  <si>
-    <t>Stromsgodset,Viking(3) Bodo/Glimt(1) Sandefjord(13) Molde(2) Tromso(11) Mjondalen(16)</t>
-  </si>
-  <si>
-    <t>Tromso,Molde(2) Mjondalen(16) Odd(12) Kristiansund(4) Stromsgodset(10) Valerenga(7)</t>
-  </si>
-  <si>
-    <t>Valerenga,Rosenborg(5) Haugesund(9) Sarpsborg 08(8) Brann(15) Lillestrom(6) Tromso(11)</t>
-  </si>
-  <si>
-    <t>Viking,Stromsgodset(10) Lillestrom(6) Brann(15) Sarpsborg 08(8) Mjondalen(16) Haugesund(9)</t>
+    <t>Bodo/Glimt,W W D W W L W W D L W L D D W W W D W W W W D W W D W</t>
+  </si>
+  <si>
+    <t>Brann,L L L L L L W D L L D L D D W L L W D W D D D L L D D</t>
+  </si>
+  <si>
+    <t>Haugesund,D D L W L W W D W L W D W L L L W W L L L W L D L D D</t>
+  </si>
+  <si>
+    <t>Kristiansund,L L W W W W W L D D W L W L W L W W W L W D L L D W L</t>
+  </si>
+  <si>
+    <t>Lillestrom,L L W L W W W D W D D W W D L W W L W L L D L W W D L</t>
+  </si>
+  <si>
+    <t>Mjondalen,W D L D L D D L L W D D L L L D L L D L D L L W D L W</t>
+  </si>
+  <si>
+    <t>Molde,W D W W L D W W W W W L W D W L L W D D W W W L L W W</t>
+  </si>
+  <si>
+    <t>Odd,D D L W L D W W W D L W L L W L L D L W L D D L D L D</t>
+  </si>
+  <si>
+    <t>Rosenborg,D W D W L W W L L L D D W W W W L W W W L D W D L D L</t>
+  </si>
+  <si>
+    <t>Sandefjord,L W L L L W L W W W L D W D L D L W D L L D L W L L D</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,D D L W D L W L L W L D D L L W W L L L W L W W W W D</t>
+  </si>
+  <si>
+    <t>Stabaek,D D W L L L L L D L L L W W L D L L W D L D L L W L W</t>
+  </si>
+  <si>
+    <t>Stromsgodset,W L D L W L D W L D D W W L L W W L W D L L D L W D L</t>
+  </si>
+  <si>
+    <t>Tromso,L D W L D L W L L D L D L W D D L L D W W L W W D D D</t>
+  </si>
+  <si>
+    <t>Valerenga,D W L D W W L D D W W D D L D D W L D L W D W L W D D</t>
+  </si>
+  <si>
+    <t>Viking,W L L W W L W L W D D D L W W D W W L D W W W W L W D</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,3 2 2 2 2 0 2 7 1 0 4 0 2 2 1 3 3 1 3 1 3 2 1 2 1 2 2,(54)</t>
+  </si>
+  <si>
+    <t>Brann,1 0 0 2 1 0 3 0 1 0 1 2 1 1 3 1 1 3 1 3 1 1 3 0 0 2 2,(34)</t>
+  </si>
+  <si>
+    <t>Haugesund,0 0 0 4 1 3 1 0 3 0 3 1 2 4 2 0 3 2 2 1 0 7 1 0 1 2 1,(44)</t>
+  </si>
+  <si>
+    <t>Kristiansund,0 0 2 1 1 1 2 0 1 0 3 0 2 2 5 0 2 2 3 1 1 0 1 0 1 4 0,(35)</t>
+  </si>
+  <si>
+    <t>Lillestrom,1 1 1 0 2 2 2 1 2 2 1 3 2 1 0 3 2 2 3 1 1 0 1 3 3 0 0,(40)</t>
+  </si>
+  <si>
+    <t>Mjondalen,3 1 1 0 0 1 1 1 1 3 1 1 1 2 1 1 1 0 1 1 1 0 0 5 2 0 2,(32)</t>
+  </si>
+  <si>
+    <t>Molde,2 3 4 3 2 0 3 4 2 2 3 0 5 1 5 2 0 4 1 2 3 3 3 0 0 3 4,(64)</t>
+  </si>
+  <si>
+    <t>Odd,2 1 0 1 0 1 3 3 2 2 0 3 0 2 4 0 0 1 2 3 1 0 3 0 2 2 1,(39)</t>
+  </si>
+  <si>
+    <t>Rosenborg,1 5 2 3 2 2 4 1 0 0 0 2 1 3 2 5 1 3 3 3 0 2 4 0 1 2 1,(53)</t>
+  </si>
+  <si>
+    <t>Sandefjord,0 3 1 1 1 3 0 1 2 2 0 1 3 1 2 1 0 3 1 0 1 0 1 2 0 1 2,(33)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,0 1 0 2 0 1 1 1 1 1 0 2 1 0 1 1 5 1 1 0 2 1 3 2 2 4 1,(35)</t>
+  </si>
+  <si>
+    <t>Stabaek,2 0 2 2 0 1 0 1 3 0 1 2 2 3 1 1 1 1 3 0 0 1 0 0 2 1 3,(33)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,3 0 1 0 2 2 1 4 0 1 1 2 3 1 0 3 1 1 5 0 0 0 1 0 6 1 1,(40)</t>
+  </si>
+  <si>
+    <t>Tromso,0 3 1 1 1 0 3 1 0 0 0 1 1 3 1 1 2 2 1 2 2 0 1 2 1 1 1,(32)</t>
+  </si>
+  <si>
+    <t>Valerenga,1 3 1 1 3 3 1 1 1 2 4 1 2 1 1 1 3 0 1 0 3 2 2 1 1 0 1,(41)</t>
+  </si>
+  <si>
+    <t>Viking,3 0 0 3 2 2 4 0 2 3 2 1 2 3 3 1 2 3 1 2 2 1 5 2 1 1 1,(52)</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,0 0 2 1 0 1 0 2 1 2 1 1 2 2 0 0 2 1 1 0 0 1 1 0 0 2 0,(23)</t>
+  </si>
+  <si>
+    <t>Brann,3 3 4 3 2 2 0 0 3 1 1 3 1 1 2 3 3 2 1 1 1 1 3 2 1 2 2,(51)</t>
+  </si>
+  <si>
+    <t>Haugesund,0 0 2 2 2 0 0 0 0 3 1 1 1 5 4 3 1 1 3 3 2 0 2 0 2 2 1,(41)</t>
+  </si>
+  <si>
+    <t>Kristiansund,2 2 1 0 0 0 0 3 1 0 2 1 0 3 1 3 0 1 2 3 0 0 3 5 1 2 3,(39)</t>
+  </si>
+  <si>
+    <t>Lillestrom,3 3 0 1 1 1 0 1 1 2 1 2 0 1 1 0 1 3 2 2 2 0 5 0 1 0 2,(36)</t>
+  </si>
+  <si>
+    <t>Mjondalen,0 1 2 0 2 1 1 2 2 0 1 1 2 3 2 1 2 4 1 3 1 7 1 0 2 1 1,(44)</t>
+  </si>
+  <si>
+    <t>Molde,0 3 0 2 3 0 1 1 1 0 0 1 0 1 4 3 2 0 1 2 1 0 0 2 6 1 1,(36)</t>
+  </si>
+  <si>
+    <t>Odd,2 1 1 0 2 1 1 0 1 2 5 2 3 3 2 5 1 1 3 1 3 0 3 2 2 4 1,(52)</t>
+  </si>
+  <si>
+    <t>Rosenborg,1 0 2 2 3 1 2 2 1 2 0 2 0 1 1 0 2 2 1 1 1 2 1 0 3 2 4,(39)</t>
+  </si>
+  <si>
+    <t>Sandefjord,3 1 2 3 3 0 4 0 0 0 2 1 2 1 3 1 5 0 1 3 2 0 4 0 1 3 2,(47)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,0 1 1 0 0 4 0 2 4 0 2 2 1 2 3 0 0 2 3 5 1 2 1 1 1 1 1,(40)</t>
+  </si>
+  <si>
+    <t>Stabaek,2 0 0 4 3 2 2 4 3 2 2 3 1 1 5 1 3 3 0 0 3 1 3 3 1 4 0,(56)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,1 1 1 3 1 7 1 0 3 1 1 1 0 2 1 1 0 2 0 0 3 1 1 2 0 1 2,(37)</t>
+  </si>
+  <si>
+    <t>Tromso,3 3 0 3 1 2 0 2 3 0 3 1 3 2 1 1 3 3 1 1 0 3 0 0 1 1 1,(42)</t>
+  </si>
+  <si>
+    <t>Valerenga,1 0 2 1 2 1 4 1 1 0 1 1 2 3 1 1 1 3 1 1 0 2 1 2 0 0 1,(34)</t>
+  </si>
+  <si>
+    <t>Viking,1 5 1 1 1 4 1 3 1 3 2 1 3 2 2 1 1 1 3 2 1 0 1 0 2 0 1,(44)</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,3 2 4 3 2 1 2 9 2 2 5 1 4 4 1 3 5 2 4 1 3 3 2 2 1 4 2,(77)</t>
+  </si>
+  <si>
+    <t>Brann,4 3 4 5 3 2 3 0 4 1 2 5 2 2 5 4 4 5 2 4 2 2 6 2 1 4 4,(85)</t>
+  </si>
+  <si>
+    <t>Haugesund,0 0 2 6 3 3 1 0 3 3 4 2 3 9 6 3 4 3 5 4 2 7 3 0 3 4 2,(85)</t>
+  </si>
+  <si>
+    <t>Kristiansund,2 2 3 1 1 1 2 3 2 0 5 1 2 5 6 3 2 3 5 4 1 0 4 5 2 6 3,(74)</t>
+  </si>
+  <si>
+    <t>Lillestrom,4 4 1 1 3 3 2 2 3 4 2 5 2 2 1 3 3 5 5 3 3 0 6 3 4 0 2,(76)</t>
+  </si>
+  <si>
+    <t>Mjondalen,3 2 3 0 2 2 2 3 3 3 2 2 3 5 3 2 3 4 2 4 2 7 1 5 4 1 3,(76)</t>
+  </si>
+  <si>
+    <t>Molde,2 6 4 5 5 0 4 5 3 2 3 1 5 2 9 5 2 4 2 4 4 3 3 2 6 4 5,(100)</t>
+  </si>
+  <si>
+    <t>Odd,4 2 1 1 2 2 4 3 3 4 5 5 3 5 6 5 1 2 5 4 4 0 6 2 4 6 2,(91)</t>
+  </si>
+  <si>
+    <t>Rosenborg,2 5 4 5 5 3 6 3 1 2 0 4 1 4 3 5 3 5 4 4 1 4 5 0 4 4 5,(92)</t>
+  </si>
+  <si>
+    <t>Sandefjord,3 4 3 4 4 3 4 1 2 2 2 2 5 2 5 2 5 3 2 3 3 0 5 2 1 4 4,(80)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,0 2 1 2 0 5 1 3 5 1 2 4 2 2 4 1 5 3 4 5 3 3 4 3 3 5 2,(75)</t>
+  </si>
+  <si>
+    <t>Stabaek,4 0 2 6 3 3 2 5 6 2 3 5 3 4 6 2 4 4 3 0 3 2 3 3 3 5 3,(89)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,4 1 2 3 3 9 2 4 3 2 2 3 3 3 1 4 1 3 5 0 3 1 2 2 6 2 3,(77)</t>
+  </si>
+  <si>
+    <t>Tromso,3 6 1 4 2 2 3 3 3 0 3 2 4 5 2 2 5 5 2 3 2 3 1 2 2 2 2,(74)</t>
+  </si>
+  <si>
+    <t>Valerenga,2 3 3 2 5 4 5 2 2 2 5 2 4 4 2 2 4 3 2 1 3 4 3 3 1 0 2,(75)</t>
+  </si>
+  <si>
+    <t>Viking,4 5 1 4 3 6 5 3 3 6 4 2 5 5 5 2 3 4 4 4 3 1 6 2 3 1 2,(96)</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,3-0 0-2 2-2 1-2 2-0 1-0 2-0 7-2 1-1 0-2 4-1 1-0 2-2 2-2 0-1 3-0 2-3 1-1 1-3 1-0 0-3 2-1 1-1 0-2 1-0 2-2 2-0</t>
+  </si>
+  <si>
+    <t>Brann,3-1 0-3 4-0 3-2 1-2 2-0 3-0 0-0 1-3 1-0 1-1 3-2 1-1 1-1 3-2 3-1 1-3 2-3 1-1 3-1 1-1 1-1 3-3 0-2 1-0 2-2 2-2</t>
+  </si>
+  <si>
+    <t>Haugesund,0-0 0-0 2-0 4-2 2-1 3-0 1-0 0-0 3-0 3-0 3-1 1-1 2-1 5-4 4-2 0-3 1-3 2-1 3-2 1-3 2-0 7-0 2-1 0-0 2-1 2-2 1-1</t>
+  </si>
+  <si>
+    <t>Kristiansund,2-0 0-2 1-2 1-0 0-1 1-0 2-0 3-0 1-1 0-0 3-2 1-0 2-0 3-2 5-1 3-0 2-0 1-2 3-2 3-1 1-0 0-0 1-3 5-0 1-1 2-4 3-0</t>
+  </si>
+  <si>
+    <t>Lillestrom,3-1 1-3 1-0 1-0 2-1 1-2 2-0 1-1 2-1 2-2 1-1 2-3 2-0 1-1 0-1 0-3 1-2 2-3 2-3 1-2 2-1 0-0 5-1 3-0 1-3 0-0 2-0</t>
+  </si>
+  <si>
+    <t>Mjondalen,0-3 1-1 2-1 0-0 2-0 1-1 1-1 1-2 2-1 3-0 1-1 1-1 1-2 2-3 1-2 1-1 1-2 4-0 1-1 3-1 1-1 7-0 1-0 5-0 2-2 0-1 1-2</t>
+  </si>
+  <si>
+    <t>Molde,2-0 3-3 4-0 2-3 2-3 0-0 1-3 4-1 2-1 0-2 3-0 1-0 5-0 1-1 5-4 3-2 2-0 4-0 1-1 2-2 1-3 3-0 0-3 0-2 6-0 3-1 4-1</t>
+  </si>
+  <si>
+    <t>Odd,2-2 1-1 1-0 1-0 2-0 1-1 1-3 3-0 1-2 2-2 5-0 3-2 3-0 2-3 4-2 5-0 0-1 1-1 2-3 1-3 1-3 0-0 3-3 2-0 2-2 2-4 1-1</t>
+  </si>
+  <si>
+    <t>Rosenborg,1-1 5-0 2-2 3-2 2-3 1-2 4-2 2-1 0-1 2-0 0-0 2-2 1-0 1-3 1-2 5-0 2-1 3-2 1-3 3-1 1-0 2-2 4-1 0-0 1-3 2-2 4-1</t>
+  </si>
+  <si>
+    <t>Sandefjord,0-3 1-3 1-2 3-1 1-3 3-0 4-0 1-0 0-2 2-0 2-0 1-1 2-3 1-1 3-2 1-1 5-0 3-0 1-1 0-3 2-1 0-0 4-1 2-0 1-0 3-1 2-2</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,0-0 1-1 0-1 0-2 0-0 4-1 0-1 1-2 4-1 1-0 2-0 2-2 1-1 2-0 3-1 1-0 5-0 2-1 1-3 5-0 2-1 2-1 1-3 2-1 1-2 4-1 1-1</t>
+  </si>
+  <si>
+    <t>Stabaek,2-2 0-0 2-0 4-2 0-3 2-1 0-2 4-1 3-3 0-2 2-1 2-3 1-2 3-1 5-1 1-1 3-1 1-3 0-3 0-0 0-3 1-1 0-3 3-0 2-1 4-1 3-0</t>
+  </si>
+  <si>
+    <t>Stromsgodset,3-1 1-0 1-1 3-0 2-1 7-2 1-1 4-0 3-0 1-1 1-1 2-1 3-0 2-1 1-0 3-1 0-1 1-2 5-0 0-0 3-0 0-1 1-1 2-0 6-0 1-1 1-2</t>
+  </si>
+  <si>
+    <t>Tromso,3-0 3-3 0-1 1-3 1-1 0-2 0-3 1-2 3-0 0-0 3-0 1-1 1-3 2-3 1-1 1-1 2-3 3-2 1-1 1-2 2-0 3-0 1-0 2-0 1-1 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Valerenga,1-1 0-3 1-2 1-1 2-3 3-1 4-1 1-1 1-1 0-2 4-1 1-1 2-2 3-1 1-1 1-1 3-1 3-0 1-1 1-0 3-0 2-2 2-1 2-1 1-0 0-0 1-1</t>
+  </si>
+  <si>
+    <t>Viking,3-1 5-0 0-1 1-3 2-1 4-2 4-1 3-0 1-2 3-3 2-2 1-1 3-2 3-2 3-2 1-1 2-1 1-3 1-3 2-2 2-1 0-1 5-1 0-2 1-2 0-1 1-1</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,3 2 0 1 2 -1 2 5 0 -2 3 -1 0 0 1 3 1 0 2 1 3 1 0 2 1 0 2,(31)</t>
+  </si>
+  <si>
+    <t>Brann,-2 -3 -4 -1 -1 -2 3 0 -2 -1 0 -1 0 0 1 -2 -2 1 0 2 0 0 0 -2 -1 0 0,(-17)</t>
+  </si>
+  <si>
+    <t>Haugesund,0 0 -2 2 -1 3 1 0 3 -3 2 0 1 -1 -2 -3 2 1 -1 -2 -2 7 -1 0 -1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Kristiansund,-2 -2 1 1 1 1 2 -3 0 0 1 -1 2 -1 4 -3 2 1 1 -2 1 0 -2 -5 0 2 -3,(-4)</t>
+  </si>
+  <si>
+    <t>Lillestrom,-2 -2 1 -1 1 1 2 0 1 0 0 1 2 0 -1 3 1 -1 1 -1 -1 0 -4 3 2 0 -2,(4)</t>
+  </si>
+  <si>
+    <t>Mjondalen,3 0 -1 0 -2 0 0 -1 -1 3 0 0 -1 -1 -1 0 -1 -4 0 -2 0 -7 -1 5 0 -1 1,(-12)</t>
+  </si>
+  <si>
+    <t>Molde,2 0 4 1 -1 0 2 3 1 2 3 -1 5 0 1 -1 -2 4 0 0 2 3 3 -2 -6 2 3,(28)</t>
+  </si>
+  <si>
+    <t>Odd,0 0 -1 1 -2 0 2 3 1 0 -5 1 -3 -1 2 -5 -1 0 -1 2 -2 0 0 -2 0 -2 0,(-13)</t>
+  </si>
+  <si>
+    <t>Rosenborg,0 5 0 1 -1 1 2 -1 -1 -2 0 0 1 2 1 5 -1 1 2 2 -1 0 3 0 -2 0 -3,(14)</t>
+  </si>
+  <si>
+    <t>Sandefjord,-3 2 -1 -2 -2 3 -4 1 2 2 -2 0 1 0 -1 0 -5 3 0 -3 -1 0 -3 2 -1 -2 0,(-14)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,0 0 -1 2 0 -3 1 -1 -3 1 -2 0 0 -2 -2 1 5 -1 -2 -5 1 -1 2 1 1 3 0,(-5)</t>
+  </si>
+  <si>
+    <t>Stabaek,0 0 2 -2 -3 -1 -2 -3 0 -2 -1 -1 1 2 -4 0 -2 -2 3 0 -3 0 -3 -3 1 -3 3,(-23)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,2 -1 0 -3 1 -5 0 4 -3 0 0 1 3 -1 -1 2 1 -1 5 0 -3 -1 0 -2 6 0 -1,(3)</t>
+  </si>
+  <si>
+    <t>Tromso,-3 0 1 -2 0 -2 3 -1 -3 0 -3 0 -2 1 0 0 -1 -1 0 1 2 -3 1 2 0 0 0,(-10)</t>
+  </si>
+  <si>
+    <t>Valerenga,0 3 -1 0 1 2 -3 0 0 2 3 0 0 -2 0 0 2 -3 0 -1 3 0 1 -1 1 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Viking,2 -5 -1 2 1 -2 3 -3 1 0 0 0 -1 1 1 0 1 2 -2 0 1 1 4 2 -1 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt,Tromso(11) Kristiansund(4) Rosenborg(5) Brann(15) Haugesund(9) Odd(12) Mjondalen(16) Stromsgodset(10) Valerenga(7) Molde(2) Stabaek(14) Sandefjord(13) Viking(3) Sarpsborg 08(8) Lillestrom(6) Kristiansund(4) Tromso(11) Odd(12) Viking(3) Valerenga(7) Stabaek(14) Sarpsborg 08(8) Stromsgodset(10) Molde(2) Sandefjord(13) Haugesund(9) Lillestrom(6)</t>
+  </si>
+  <si>
+    <t>Brann,Viking(3) Valerenga(7) Molde(2) Rosenborg(5) Bodo/Glimt(1) Stabaek(14) Stromsgodset(10) Sarpsborg 08(8) Odd(12) Haugesund(9) Lillestrom(6) Kristiansund(4) Tromso(11) Mjondalen(16) Sandefjord(13) Stromsgodset(10) Haugesund(9) Lillestrom(6) Tromso(11) Kristiansund(4) Mjondalen(16) Stabaek(14) Odd(12) Viking(3) Valerenga(7) Rosenborg(5) Sandefjord(13)</t>
+  </si>
+  <si>
+    <t>Haugesund,Sarpsborg 08(8) Stabaek(14) Bodo/Glimt(1) Viking(3) Lillestrom(6) Kristiansund(4) Brann(15) Rosenborg(5) Tromso(11) Mjondalen(16) Valerenga(7) Sandefjord(13) Stromsgodset(10) Molde(2) Odd(12) Lillestrom(6) Brann(15) Sarpsborg 08(8) Kristiansund(4) Odd(12) Tromso(11) Mjondalen(16) Valerenga(7) Rosenborg(5) Stabaek(14) Bodo/Glimt(1) Viking(3)</t>
+  </si>
+  <si>
+    <t>Kristiansund,Molde(2) Bodo/Glimt(1) Valerenga(7) Stromsgodset(10) Sarpsborg 08(8) Lillestrom(6) Odd(12) Haugesund(9) Mjondalen(16) Tromso(11) Brann(15) Rosenborg(5) Sandefjord(13) Viking(3) Stabaek(14) Bodo/Glimt(1) Molde(2) Stromsgodset(10) Haugesund(9) Brann(15) Rosenborg(5) Lillestrom(6) Sarpsborg 08(8) Mjondalen(16) Tromso(11) Odd(12) Stabaek(14)</t>
+  </si>
+  <si>
+    <t>Lillestrom,Stromsgodset(10) Viking(3) Odd(12) Kristiansund(4) Haugesund(9) Tromso(11) Rosenborg(5) Brann(15) Mjondalen(16) Valerenga(7) Molde(2) Stabaek(14) Sarpsborg 08(8) Sandefjord(13) Bodo/Glimt(1) Haugesund(9) Mjondalen(16) Brann(15) Odd(12) Tromso(11) Sarpsborg 08(8) Kristiansund(4) Viking(3) Stabaek(14) Rosenborg(5) Valerenga(7) Bodo/Glimt(1)</t>
+  </si>
+  <si>
+    <t>Mjondalen,Sandefjord(13) Valerenga(7) Viking(3) Molde(2) Bodo/Glimt(1) Stromsgodset(10) Kristiansund(4) Odd(12) Lillestrom(6) Haugesund(9) Brann(15) Sarpsborg 08(8) Stabaek(14) Tromso(11) Rosenborg(5) Stabaek(14) Lillestrom(6) Molde(2) Sandefjord(13) Rosenborg(5) Brann(15) Haugesund(9) Tromso(11) Kristiansund(4) Odd(12) Viking(3) Stromsgodset(10)</t>
+  </si>
+  <si>
+    <t>Molde,Kristiansund(4) Tromso(11) Brann(15) Rosenborg(5) Valerenga(7) Mjondalen(16) Sandefjord(13) Sarpsborg 08(8) Stabaek(14) Bodo/Glimt(1) Stromsgodset(10) Sarpsborg 08(8) Odd(12) Lillestrom(6) Haugesund(9) Viking(3) Kristiansund(4) Mjondalen(16) Valerenga(7) Viking(3) Odd(12) Tromso(11) Stabaek(14) Bodo/Glimt(1) Stromsgodset(10) Sandefjord(13) Rosenborg(5)</t>
+  </si>
+  <si>
+    <t>Odd,Stabaek(14) Sarpsborg 08(8) Lillestrom(6) Bodo/Glimt(1) Kristiansund(4) Valerenga(7) Brann(15) Tromso(11) Mjondalen(16) Rosenborg(5) Molde(2) Viking(3) Stromsgodset(10) Sandefjord(13) Haugesund(9) Rosenborg(5) Stromsgodset(10) Bodo/Glimt(1) Lillestrom(6) Haugesund(9) Molde(2) Sandefjord(13) Brann(15) Tromso(11) Mjondalen(16) Kristiansund(4) Sarpsborg 08(8)</t>
+  </si>
+  <si>
+    <t>Rosenborg,Valerenga(7) Viking(3) Bodo/Glimt(1) Brann(15) Molde(2) Sandefjord(13) Stabaek(14) Stromsgodset(10) Sarpsborg 08(8) Lillestrom(6) Haugesund(9) Odd(12) Kristiansund(4) Tromso(11) Mjondalen(16) Odd(12) Viking(3) Tromso(11) Sarpsborg 08(8) Mjondalen(16) Kristiansund(4) Valerenga(7) Sandefjord(13) Haugesund(9) Lillestrom(6) Brann(15) Molde(2)</t>
+  </si>
+  <si>
+    <t>Sandefjord,Mjondalen(16) Tromso(11) Rosenborg(5) Valerenga(7) Molde(2) Viking(3) Stromsgodset(10) Bodo/Glimt(1) Stabaek(14) Sarpsborg 08(8) Kristiansund(4) Haugesund(9) Odd(12) Lillestrom(6) Brann(15) Tromso(11) Sarpsborg 08(8) Valerenga(7) Mjondalen(16) Stabaek(14) Viking(3) Odd(12) Rosenborg(5) Stromsgodset(10) Bodo/Glimt(1) Molde(2) Brann(15)</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08,Haugesund(9) Odd(12) Kristiansund(4) Tromso(11) Brann(15) Molde(2) Rosenborg(5) Viking(3) Valerenga(7) Molde(2) Sandefjord(13) Bodo/Glimt(1) Mjondalen(16) Lillestrom(6) Stabaek(14) Stromsgodset(10) Sandefjord(13) Haugesund(9) Rosenborg(5) Stromsgodset(10) Lillestrom(6) Bodo/Glimt(1) Kristiansund(4) Valerenga(7) Viking(3) Stabaek(14) Odd(12)</t>
+  </si>
+  <si>
+    <t>Stabaek,Odd(12) Haugesund(9) Brann(15) Rosenborg(5) Tromso(11) Molde(2) Valerenga(7) Bodo/Glimt(1) Viking(3) Sandefjord(13) Stromsgodset(10) Lillestrom(6) Mjondalen(16) Sarpsborg 08(8) Kristiansund(4) Mjondalen(16) Valerenga(7) Viking(3) Sandefjord(13) Stromsgodset(10) Bodo/Glimt(1) Brann(15) Molde(2) Lillestrom(6) Haugesund(9) Sarpsborg 08(8) Kristiansund(4)</t>
+  </si>
+  <si>
+    <t>Stromsgodset,Lillestrom(6) Kristiansund(4) Tromso(11) Brann(15) Rosenborg(5) Bodo/Glimt(1) Mjondalen(16) Sandefjord(13) Molde(2) Valerenga(7) Viking(3) Stabaek(14) Odd(12) Haugesund(9) Sarpsborg 08(8) Brann(15) Odd(12) Kristiansund(4) Sarpsborg 08(8) Stabaek(14) Valerenga(7) Viking(3) Bodo/Glimt(1) Sandefjord(13) Molde(2) Tromso(11) Mjondalen(16)</t>
+  </si>
+  <si>
+    <t>Tromso,Bodo/Glimt(1) Molde(2) Viking(3) Sandefjord(13) Stromsgodset(10) Sarpsborg 08(8) Stabaek(14) Lillestrom(6) Odd(12) Kristiansund(4) Haugesund(9) Brann(15) Rosenborg(5) Mjondalen(16) Valerenga(7) Sandefjord(13) Bodo/Glimt(1) Rosenborg(5) Brann(15) Lillestrom(6) Haugesund(9) Molde(2) Mjondalen(16) Odd(12) Kristiansund(4) Stromsgodset(10) Valerenga(7)</t>
+  </si>
+  <si>
+    <t>Valerenga,Rosenborg(5) Brann(15) Kristiansund(4) Mjondalen(16) Molde(2) Sandefjord(13) Viking(3) Odd(12) Bodo/Glimt(1) Stabaek(14) Sarpsborg 08(8) Stromsgodset(10) Lillestrom(6) Haugesund(9) Tromso(11) Viking(3) Stabaek(14) Sandefjord(13) Molde(2) Bodo/Glimt(1) Stromsgodset(10) Rosenborg(5) Haugesund(9) Sarpsborg 08(8) Brann(15) Lillestrom(6) Tromso(11)</t>
+  </si>
+  <si>
+    <t>Viking,Brann(15) Rosenborg(5) Tromso(11) Lillestrom(6) Mjondalen(16) Haugesund(9) Valerenga(7) Sandefjord(13) Sarpsborg 08(8) Stabaek(14) Bodo/Glimt(1) Stromsgodset(10) Odd(12) Kristiansund(4) Molde(2) Valerenga(7) Rosenborg(5) Stabaek(14) Bodo/Glimt(1) Molde(2) Sandefjord(13) Stromsgodset(10) Lillestrom(6) Brann(15) Sarpsborg 08(8) Mjondalen(16) Haugesund(9)</t>
   </si>
   <si>
     <t>nor_division</t>
